--- a/Documents/Metadata_CoreGenericHealth_v2.xlsx
+++ b/Documents/Metadata_CoreGenericHealth_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/Plateau2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GitHub/health-ri-metadata/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3206" documentId="13_ncr:1_{F400FBA4-788C-A049-BCFC-7AF7AD8163AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB4AE5F-FFF7-4440-BD51-E643CDE18398}"/>
+  <xr:revisionPtr revIDLastSave="3208" documentId="13_ncr:1_{F400FBA4-788C-A049-BCFC-7AF7AD8163AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D941DCCA-04DE-4EAA-A3D3-3922BE451E31}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-9225" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="14" r:id="rId1"/>
@@ -2613,7 +2613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3239,28 +3239,40 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3271,39 +3283,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10227,102 +10206,102 @@
       <c r="L13" s="130"/>
     </row>
     <row r="14" spans="1:12" ht="43.2">
-      <c r="A14" s="215" t="s">
+      <c r="A14" s="220" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="221" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="220" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="218" t="s">
+      <c r="E14" s="222" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="217" t="s">
+      <c r="F14" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="217" t="s">
+      <c r="G14" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="217" t="s">
+      <c r="H14" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="219" t="s">
+      <c r="I14" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="219" t="s">
+      <c r="J14" s="217" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="220"/>
-      <c r="L14" s="219"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="217"/>
     </row>
     <row r="15" spans="1:12" ht="43.2">
-      <c r="A15" s="215"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="215"/>
+      <c r="A15" s="220"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="220"/>
       <c r="D15" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="218"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="219"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="217"/>
     </row>
     <row r="16" spans="1:12" ht="28.8">
-      <c r="A16" s="215"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="215"/>
+      <c r="A16" s="220"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="218"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="219"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="217"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="215"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="215"/>
+      <c r="A17" s="220"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="218"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="219"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="217"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="215"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="215"/>
+      <c r="A18" s="220"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="220"/>
       <c r="D18" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="218"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="219"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="217"/>
     </row>
     <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="126" t="s">
@@ -11558,17 +11537,17 @@
     <sortCondition ref="A2:A53"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="E14:E18"/>
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="I14:I18"/>
     <mergeCell ref="J14:J18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="E14:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F14 F19:F53">
     <cfRule type="cellIs" dxfId="190" priority="8" operator="equal">
@@ -11940,102 +11919,102 @@
       <c r="L7" s="130"/>
     </row>
     <row r="8" spans="1:12" ht="28.8">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="220" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="223" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="215" t="s">
+      <c r="C8" s="220" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="218" t="s">
+      <c r="E8" s="222" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="217" t="s">
+      <c r="F8" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="217" t="s">
+      <c r="G8" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="217" t="s">
+      <c r="H8" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="219" t="s">
+      <c r="I8" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="219" t="s">
+      <c r="J8" s="217" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="138"/>
-      <c r="L8" s="219"/>
+      <c r="L8" s="217"/>
     </row>
     <row r="9" spans="1:12" ht="28.8">
-      <c r="A9" s="215"/>
-      <c r="B9" s="221"/>
-      <c r="C9" s="215"/>
+      <c r="A9" s="220"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="220"/>
       <c r="D9" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="218"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="217"/>
       <c r="K9" s="138"/>
-      <c r="L9" s="219"/>
+      <c r="L9" s="217"/>
     </row>
     <row r="10" spans="1:12" ht="28.8">
-      <c r="A10" s="215"/>
-      <c r="B10" s="221"/>
-      <c r="C10" s="215"/>
+      <c r="A10" s="220"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="220"/>
       <c r="D10" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="218"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="217"/>
       <c r="K10" s="138"/>
-      <c r="L10" s="219"/>
+      <c r="L10" s="217"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="215"/>
-      <c r="B11" s="221"/>
-      <c r="C11" s="215"/>
+      <c r="A11" s="220"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="220"/>
       <c r="D11" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="218"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="219"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
       <c r="K11" s="156"/>
-      <c r="L11" s="219"/>
+      <c r="L11" s="217"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="215"/>
-      <c r="B12" s="221"/>
-      <c r="C12" s="215"/>
+      <c r="A12" s="220"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="218"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="219"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="217"/>
       <c r="K12" s="138"/>
-      <c r="L12" s="219"/>
+      <c r="L12" s="217"/>
     </row>
     <row r="13" spans="1:12" ht="43.2">
       <c r="A13" s="126" t="s">
@@ -12247,7 +12226,7 @@
       </c>
       <c r="L18" s="107"/>
     </row>
-    <row r="19" spans="1:12" s="233" customFormat="1">
+    <row r="19" spans="1:12">
       <c r="A19" s="126" t="s">
         <v>225</v>
       </c>
@@ -12281,41 +12260,41 @@
       </c>
       <c r="L19" s="130"/>
     </row>
-    <row r="20" spans="1:12" s="233" customFormat="1" ht="43.2">
-      <c r="A20" s="228" t="s">
+    <row r="20" spans="1:12" ht="43.2">
+      <c r="A20" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C20" s="228" t="s">
+      <c r="C20" s="122" t="s">
         <v>327</v>
       </c>
-      <c r="D20" s="230" t="s">
+      <c r="D20" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="234" t="s">
+      <c r="E20" s="215" t="s">
         <v>328</v>
       </c>
-      <c r="F20" s="231" t="s">
+      <c r="F20" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="231" t="s">
+      <c r="G20" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="231" t="s">
+      <c r="H20" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="232" t="s">
+      <c r="I20" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="232" t="s">
+      <c r="J20" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="235"/>
-      <c r="L20" s="232"/>
-    </row>
-    <row r="21" spans="1:12" s="233" customFormat="1" ht="72">
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
+    </row>
+    <row r="21" spans="1:12" ht="72">
       <c r="A21" s="126" t="s">
         <v>329</v>
       </c>
@@ -12349,41 +12328,41 @@
       <c r="K21" s="131"/>
       <c r="L21" s="130"/>
     </row>
-    <row r="22" spans="1:12" s="233" customFormat="1">
-      <c r="A22" s="228" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="228" t="s">
+      <c r="C22" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="230" t="s">
+      <c r="D22" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="229"/>
-      <c r="F22" s="231" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="231" t="s">
+      <c r="G22" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="H22" s="231" t="s">
+      <c r="H22" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="232" t="s">
+      <c r="I22" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="232" t="s">
+      <c r="J22" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="235" t="s">
+      <c r="K22" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="L22" s="232"/>
-    </row>
-    <row r="23" spans="1:12" s="233" customFormat="1" ht="57.6">
+      <c r="L22" s="107"/>
+    </row>
+    <row r="23" spans="1:12" ht="57.6">
       <c r="A23" s="126" t="s">
         <v>334</v>
       </c>
@@ -12417,41 +12396,41 @@
       <c r="K23" s="212"/>
       <c r="L23" s="130"/>
     </row>
-    <row r="24" spans="1:12" s="233" customFormat="1" ht="28.8">
-      <c r="A24" s="228" t="s">
+    <row r="24" spans="1:12" ht="28.8">
+      <c r="A24" s="122" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="228" t="s">
+      <c r="C24" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="230" t="s">
+      <c r="D24" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="236" t="s">
+      <c r="E24" s="216" t="s">
         <v>338</v>
       </c>
-      <c r="F24" s="231" t="s">
+      <c r="F24" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="231" t="s">
+      <c r="G24" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="231" t="s">
+      <c r="H24" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="232" t="s">
+      <c r="I24" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="232" t="s">
+      <c r="J24" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K24" s="235" t="s">
+      <c r="K24" s="106" t="s">
         <v>269</v>
       </c>
-      <c r="L24" s="232"/>
+      <c r="L24" s="107"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="33"/>
@@ -14854,8 +14833,8 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -16120,9 +16099,9 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -16233,13 +16212,13 @@
         <v>466</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="125" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I3" s="107" t="s">
         <v>61</v>
@@ -16323,104 +16302,104 @@
       <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:12" ht="28.8">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="227" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="229" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="222" t="s">
+      <c r="F6" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="222" t="s">
+      <c r="G6" s="226" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="222" t="s">
+      <c r="H6" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="226" t="s">
+      <c r="I6" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="219" t="s">
+      <c r="J6" s="217" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="227" t="s">
+      <c r="K6" s="225" t="s">
         <v>471</v>
       </c>
-      <c r="L6" s="226"/>
+      <c r="L6" s="224"/>
     </row>
     <row r="7" spans="1:12" ht="28.8">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="223"/>
+      <c r="A7" s="227"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="227"/>
       <c r="D7" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="225"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="226"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="226"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="224"/>
     </row>
     <row r="8" spans="1:12" ht="28.8">
-      <c r="A8" s="223"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="223"/>
+      <c r="A8" s="227"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="227"/>
       <c r="D8" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="225"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="226"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="224"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="223"/>
-      <c r="B9" s="224"/>
-      <c r="C9" s="223"/>
+      <c r="A9" s="227"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="227"/>
       <c r="D9" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="226"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="227"/>
-      <c r="L9" s="226"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="226"/>
+      <c r="H9" s="226"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="225"/>
+      <c r="L9" s="224"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="223"/>
-      <c r="B10" s="224"/>
-      <c r="C10" s="223"/>
+      <c r="A10" s="227"/>
+      <c r="B10" s="228"/>
+      <c r="C10" s="227"/>
       <c r="D10" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="225"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="226"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="227"/>
-      <c r="L10" s="226"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="224"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="122" t="s">
@@ -16725,17 +16704,17 @@
   </sheetData>
   <autoFilter ref="A1:L15" xr:uid="{FBE7E653-2382-46E4-9C76-9C694EDC9195}"/>
   <mergeCells count="11">
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="J6:J10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="F6:F10"/>
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6 F11:F15">
     <cfRule type="cellIs" dxfId="127" priority="7" operator="equal">
@@ -18112,15 +18091,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18367,21 +18343,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18406,9 +18382,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/Metadata_CoreGenericHealth_v2.xlsx
+++ b/Documents/Metadata_CoreGenericHealth_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GitHub/health-ri-metadata/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3208" documentId="13_ncr:1_{F400FBA4-788C-A049-BCFC-7AF7AD8163AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D941DCCA-04DE-4EAA-A3D3-3922BE451E31}"/>
+  <xr:revisionPtr revIDLastSave="3216" documentId="13_ncr:1_{F400FBA4-788C-A049-BCFC-7AF7AD8163AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B34781B7-C461-4DB0-AF31-0C0F180972E1}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-9225" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="14" r:id="rId1"/>
@@ -1794,56 +1794,6 @@
     <t>dcat:endpointDescription</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Display"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Old</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Display"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">: A description of the technical details or documentation for accessing the data service's endpoint. It helps users understand how to interact with the service.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Display"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>New</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Display"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Display"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Provides technical documentation that explains how to access and interact with the data service’s endpoint.</t>
-    </r>
-  </si>
-  <si>
     <t>access_service:endpoint_description</t>
   </si>
   <si>
@@ -2192,13 +2142,16 @@
   </si>
   <si>
     <t>xsd:hexBinary</t>
+  </si>
+  <si>
+    <t>Provides technical documentation that explains how to access and interact with the data service’s endpoint.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2516,8 +2469,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2584,12 +2543,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3219,9 +3172,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3246,43 +3196,46 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6904,19 +6857,19 @@
     </row>
     <row r="2" spans="1:12" ht="72">
       <c r="A2" s="199" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>519</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C2" s="76" t="s">
         <v>520</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>521</v>
       </c>
       <c r="D2" s="199" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="200" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>17</v>
@@ -6925,7 +6878,7 @@
         <v>75</v>
       </c>
       <c r="H2" s="201" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I2" s="163" t="s">
         <v>19</v>
@@ -6938,13 +6891,13 @@
     </row>
     <row r="3" spans="1:12" ht="28.8">
       <c r="A3" s="68" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="C3" s="77" t="s">
         <v>525</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>526</v>
       </c>
       <c r="D3" s="68" t="s">
         <v>25</v>
@@ -7089,13 +7042,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="76" t="s">
         <v>528</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>529</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>25</v>
@@ -7119,13 +7072,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="48" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="77" t="s">
         <v>531</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>532</v>
       </c>
       <c r="D3" s="48" t="s">
         <v>25</v>
@@ -7787,19 +7740,19 @@
     </row>
     <row r="2" spans="1:12" ht="43.2">
       <c r="A2" s="84" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="58" t="s">
         <v>534</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>535</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>27</v>
@@ -7820,19 +7773,19 @@
     </row>
     <row r="3" spans="1:12" ht="86.4">
       <c r="A3" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="77" t="s">
         <v>538</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="D3" s="115" t="s">
         <v>539</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="E3" s="50" t="s">
         <v>540</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>541</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>27</v>
@@ -7965,19 +7918,19 @@
     </row>
     <row r="2" spans="1:12" ht="158.4">
       <c r="A2" s="84" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>542</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>539</v>
-      </c>
-      <c r="D2" s="59" t="s">
+      <c r="E2" s="59" t="s">
         <v>543</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>544</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>17</v>
@@ -7998,19 +7951,19 @@
     </row>
     <row r="3" spans="1:12" ht="43.2">
       <c r="A3" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>545</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="77" t="s">
         <v>546</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>547</v>
       </c>
       <c r="D3" s="117" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>17</v>
@@ -8142,19 +8095,19 @@
     </row>
     <row r="2" spans="1:12" ht="100.8">
       <c r="A2" s="84" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="58" t="s">
         <v>550</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>551</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>27</v>
@@ -8175,19 +8128,19 @@
     </row>
     <row r="3" spans="1:12" ht="57.6">
       <c r="A3" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>553</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="77" t="s">
         <v>554</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>555</v>
       </c>
       <c r="D3" s="117" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>27</v>
@@ -8295,7 +8248,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E1" s="56" t="s">
         <v>4</v>
@@ -8318,13 +8271,13 @@
     </row>
     <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>558</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="C2" s="44" t="s">
         <v>559</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>560</v>
       </c>
       <c r="D2" s="43" t="s">
         <v>25</v>
@@ -8332,7 +8285,7 @@
       <c r="E2" s="45"/>
       <c r="F2" s="64"/>
       <c r="G2" s="63" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H2" s="65" t="s">
         <v>93</v>
@@ -8346,13 +8299,13 @@
     </row>
     <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="67" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>563</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>564</v>
       </c>
       <c r="D3" s="48" t="s">
         <v>25</v>
@@ -8360,10 +8313,10 @@
       <c r="E3" s="50"/>
       <c r="F3" s="68"/>
       <c r="G3" s="69" t="s">
+        <v>564</v>
+      </c>
+      <c r="H3" s="48" t="s">
         <v>565</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>566</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>19</v>
@@ -8374,13 +8327,13 @@
     </row>
     <row r="4" spans="1:10" ht="43.2">
       <c r="A4" s="63" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>567</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="C4" s="44" t="s">
         <v>568</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>569</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>25</v>
@@ -8388,10 +8341,10 @@
       <c r="E4" s="53"/>
       <c r="F4" s="64"/>
       <c r="G4" s="63" t="s">
+        <v>569</v>
+      </c>
+      <c r="H4" s="65" t="s">
         <v>570</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>571</v>
       </c>
       <c r="I4" s="66" t="s">
         <v>19</v>
@@ -8402,26 +8355,26 @@
     </row>
     <row r="5" spans="1:10" ht="43.2">
       <c r="A5" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>573</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>574</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="48" t="s">
         <v>576</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>577</v>
       </c>
       <c r="I5" s="69" t="s">
         <v>19</v>
@@ -8432,13 +8385,13 @@
     </row>
     <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="63" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" s="73" t="s">
         <v>578</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="C6" s="44" t="s">
         <v>579</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>580</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>25</v>
@@ -8449,7 +8402,7 @@
         <v>166</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I6" s="66" t="s">
         <v>19</v>
@@ -8460,13 +8413,13 @@
     </row>
     <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="67" t="s">
+        <v>580</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>581</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>582</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>583</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>25</v>
@@ -8488,23 +8441,23 @@
     </row>
     <row r="8" spans="1:10" ht="86.4">
       <c r="A8" s="63" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>584</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="C8" s="44" t="s">
         <v>585</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>586</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H8" s="65">
         <v>1</v>
@@ -8518,13 +8471,13 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="67" t="s">
+        <v>588</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>589</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>590</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>591</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>25</v>
@@ -8532,7 +8485,7 @@
       <c r="E9" s="50"/>
       <c r="F9" s="68"/>
       <c r="G9" s="69" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>93</v>
@@ -8546,23 +8499,23 @@
     </row>
     <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="B10" s="72" t="s">
         <v>593</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="C10" s="44" t="s">
         <v>594</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>595</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="63" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H10" s="65" t="s">
         <v>29</v>
@@ -9035,25 +8988,25 @@
     </row>
     <row r="2" spans="1:12" ht="72">
       <c r="A2" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>597</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D2" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="E2" s="200" t="s">
         <v>600</v>
-      </c>
-      <c r="E2" s="200" t="s">
-        <v>601</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="208" t="s">
-        <v>602</v>
+      <c r="G2" s="207" t="s">
+        <v>601</v>
       </c>
       <c r="H2" s="47">
         <v>1</v>
@@ -9067,13 +9020,13 @@
     </row>
     <row r="3" spans="1:12" ht="71.25" customHeight="1">
       <c r="A3" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>603</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="C3" s="48" t="s">
         <v>604</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>605</v>
       </c>
       <c r="D3" s="50" t="s">
         <v>25</v>
@@ -9083,7 +9036,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H3" s="52">
         <v>1</v>
@@ -10094,12 +10047,12 @@
       <c r="J10" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="210" t="s">
+      <c r="K10" s="209" t="s">
         <v>77</v>
       </c>
       <c r="L10" s="107"/>
     </row>
-    <row r="11" spans="1:12" s="211" customFormat="1">
+    <row r="11" spans="1:12" s="210" customFormat="1">
       <c r="A11" s="126" t="s">
         <v>78</v>
       </c>
@@ -10206,102 +10159,102 @@
       <c r="L13" s="130"/>
     </row>
     <row r="14" spans="1:12" ht="43.2">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="221" t="s">
+      <c r="B14" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="220" t="s">
+      <c r="C14" s="216" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="222" t="s">
+      <c r="E14" s="219" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="219" t="s">
+      <c r="F14" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="219" t="s">
+      <c r="G14" s="218" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="219" t="s">
+      <c r="H14" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="217" t="s">
+      <c r="I14" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="217" t="s">
+      <c r="J14" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="218"/>
-      <c r="L14" s="217"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="220"/>
     </row>
     <row r="15" spans="1:12" ht="43.2">
-      <c r="A15" s="220"/>
-      <c r="B15" s="221"/>
-      <c r="C15" s="220"/>
+      <c r="A15" s="216"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="216"/>
       <c r="D15" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="222"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="217"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="220"/>
+      <c r="K15" s="221"/>
+      <c r="L15" s="220"/>
     </row>
     <row r="16" spans="1:12" ht="28.8">
-      <c r="A16" s="220"/>
-      <c r="B16" s="221"/>
-      <c r="C16" s="220"/>
+      <c r="A16" s="216"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="216"/>
       <c r="D16" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="222"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="218"/>
-      <c r="L16" s="217"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="220"/>
+      <c r="K16" s="221"/>
+      <c r="L16" s="220"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="220"/>
-      <c r="B17" s="221"/>
-      <c r="C17" s="220"/>
+      <c r="A17" s="216"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="216"/>
       <c r="D17" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="222"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="217"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="220"/>
+      <c r="K17" s="221"/>
+      <c r="L17" s="220"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="220"/>
-      <c r="B18" s="221"/>
-      <c r="C18" s="220"/>
+      <c r="A18" s="216"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="216"/>
       <c r="D18" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="222"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="217"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="221"/>
+      <c r="L18" s="220"/>
     </row>
     <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="126" t="s">
@@ -10334,7 +10287,7 @@
       <c r="J19" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="212" t="s">
+      <c r="K19" s="211" t="s">
         <v>110</v>
       </c>
       <c r="L19" s="130"/>
@@ -10388,7 +10341,7 @@
       <c r="D21" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="213" t="s">
+      <c r="E21" s="212" t="s">
         <v>119</v>
       </c>
       <c r="F21" s="128" t="s">
@@ -10476,7 +10429,7 @@
       <c r="J23" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="212" t="s">
+      <c r="K23" s="211" t="s">
         <v>131</v>
       </c>
       <c r="L23" s="130"/>
@@ -10548,7 +10501,7 @@
       <c r="J25" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="214" t="s">
+      <c r="K25" s="213" t="s">
         <v>143</v>
       </c>
       <c r="L25" s="130"/>
@@ -10890,7 +10843,7 @@
       <c r="D35" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="209" t="s">
+      <c r="E35" s="208" t="s">
         <v>200</v>
       </c>
       <c r="F35" s="128" t="s">
@@ -11537,17 +11490,17 @@
     <sortCondition ref="A2:A53"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="E14:E18"/>
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="I14:I18"/>
     <mergeCell ref="J14:J18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="E14:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F14 F19:F53">
     <cfRule type="cellIs" dxfId="190" priority="8" operator="equal">
@@ -11919,102 +11872,102 @@
       <c r="L7" s="130"/>
     </row>
     <row r="8" spans="1:12" ht="28.8">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="223" t="s">
+      <c r="B8" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="216" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="222" t="s">
+      <c r="E8" s="219" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="219" t="s">
+      <c r="F8" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="219" t="s">
+      <c r="G8" s="218" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="219" t="s">
+      <c r="H8" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="217" t="s">
+      <c r="I8" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="217" t="s">
+      <c r="J8" s="220" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="138"/>
-      <c r="L8" s="217"/>
+      <c r="L8" s="220"/>
     </row>
     <row r="9" spans="1:12" ht="28.8">
-      <c r="A9" s="220"/>
-      <c r="B9" s="223"/>
-      <c r="C9" s="220"/>
+      <c r="A9" s="216"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="216"/>
       <c r="D9" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="222"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
       <c r="K9" s="138"/>
-      <c r="L9" s="217"/>
+      <c r="L9" s="220"/>
     </row>
     <row r="10" spans="1:12" ht="28.8">
-      <c r="A10" s="220"/>
-      <c r="B10" s="223"/>
-      <c r="C10" s="220"/>
+      <c r="A10" s="216"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="216"/>
       <c r="D10" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="222"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="220"/>
       <c r="K10" s="138"/>
-      <c r="L10" s="217"/>
+      <c r="L10" s="220"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="220"/>
-      <c r="B11" s="223"/>
-      <c r="C11" s="220"/>
+      <c r="A11" s="216"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="216"/>
       <c r="D11" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="156"/>
-      <c r="L11" s="217"/>
+      <c r="L11" s="220"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="220"/>
-      <c r="B12" s="223"/>
-      <c r="C12" s="220"/>
+      <c r="A12" s="216"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="216"/>
       <c r="D12" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="222"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="217"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="218"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="220"/>
       <c r="K12" s="138"/>
-      <c r="L12" s="217"/>
+      <c r="L12" s="220"/>
     </row>
     <row r="13" spans="1:12" ht="43.2">
       <c r="A13" s="126" t="s">
@@ -12255,7 +12208,7 @@
       <c r="J19" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="212" t="s">
+      <c r="K19" s="211" t="s">
         <v>229</v>
       </c>
       <c r="L19" s="130"/>
@@ -12273,7 +12226,7 @@
       <c r="D20" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="215" t="s">
+      <c r="E20" s="214" t="s">
         <v>328</v>
       </c>
       <c r="F20" s="125" t="s">
@@ -12393,7 +12346,7 @@
       <c r="J23" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="212"/>
+      <c r="K23" s="211"/>
       <c r="L23" s="130"/>
     </row>
     <row r="24" spans="1:12" ht="28.8">
@@ -12409,7 +12362,7 @@
       <c r="D24" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="216" t="s">
+      <c r="E24" s="215" t="s">
         <v>338</v>
       </c>
       <c r="F24" s="125" t="s">
@@ -16099,7 +16052,7 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
@@ -16302,104 +16255,104 @@
       <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:12" ht="28.8">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="224" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="228" t="s">
+      <c r="B6" s="225" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="224" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="229" t="s">
+      <c r="E6" s="226" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="226" t="s">
+      <c r="F6" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="226" t="s">
+      <c r="G6" s="223" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="226" t="s">
+      <c r="H6" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="224" t="s">
+      <c r="I6" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="217" t="s">
+      <c r="J6" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="225" t="s">
+      <c r="K6" s="228" t="s">
         <v>471</v>
       </c>
-      <c r="L6" s="224"/>
+      <c r="L6" s="227"/>
     </row>
     <row r="7" spans="1:12" ht="28.8">
-      <c r="A7" s="227"/>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="224"/>
       <c r="D7" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="229"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="226"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="224"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="227"/>
     </row>
     <row r="8" spans="1:12" ht="28.8">
-      <c r="A8" s="227"/>
-      <c r="B8" s="228"/>
-      <c r="C8" s="227"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="224"/>
       <c r="D8" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="229"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="224"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="220"/>
+      <c r="K8" s="228"/>
+      <c r="L8" s="227"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="227"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="227"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="224"/>
       <c r="D9" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="229"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="226"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="225"/>
-      <c r="L9" s="224"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="228"/>
+      <c r="L9" s="227"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="227"/>
-      <c r="B10" s="228"/>
-      <c r="C10" s="227"/>
+      <c r="A10" s="224"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="224"/>
       <c r="D10" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="229"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="225"/>
-      <c r="L10" s="224"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="227"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="122" t="s">
@@ -16704,17 +16657,17 @@
   </sheetData>
   <autoFilter ref="A1:L15" xr:uid="{FBE7E653-2382-46E4-9C76-9C694EDC9195}"/>
   <mergeCells count="11">
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="F6:F10"/>
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="J6:J10"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6 F11:F15">
     <cfRule type="cellIs" dxfId="127" priority="7" operator="equal">
@@ -16806,9 +16759,9 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -17103,7 +17056,7 @@
       </c>
       <c r="L8" s="107"/>
     </row>
-    <row r="9" spans="1:12" ht="57.6">
+    <row r="9" spans="1:12" ht="43.2">
       <c r="A9" s="126" t="s">
         <v>488</v>
       </c>
@@ -17116,44 +17069,44 @@
       <c r="D9" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="207" t="s">
-        <v>491</v>
+      <c r="E9" s="229" t="s">
+        <v>606</v>
       </c>
       <c r="F9" s="128" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="128" t="s">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="H9" s="128">
         <v>1</v>
       </c>
       <c r="I9" s="130" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J9" s="107" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="106" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L9" s="130"/>
     </row>
     <row r="10" spans="1:12" ht="43.2">
       <c r="A10" s="122" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="122" t="s">
         <v>494</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>495</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F10" s="125" t="s">
         <v>17</v>
@@ -17171,7 +17124,7 @@
         <v>62</v>
       </c>
       <c r="K10" s="106" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L10" s="107"/>
     </row>
@@ -17209,13 +17162,13 @@
     </row>
     <row r="12" spans="1:12" ht="28.8">
       <c r="A12" s="122" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="122" t="s">
         <v>499</v>
-      </c>
-      <c r="C12" s="122" t="s">
-        <v>500</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>25</v>
@@ -17253,7 +17206,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="127" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F13" s="128" t="s">
         <v>17</v>
@@ -17307,19 +17260,19 @@
     </row>
     <row r="15" spans="1:12" ht="57.6">
       <c r="A15" s="126" t="s">
+        <v>501</v>
+      </c>
+      <c r="B15" s="74" t="s">
         <v>502</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="C15" s="126" t="s">
         <v>503</v>
-      </c>
-      <c r="C15" s="126" t="s">
-        <v>504</v>
       </c>
       <c r="D15" s="127" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="127" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F15" s="128" t="s">
         <v>27</v>
@@ -17353,7 +17306,7 @@
         <v>140</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F16" s="125" t="s">
         <v>27</v>
@@ -17387,7 +17340,7 @@
         <v>320</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F17" s="128" t="s">
         <v>17</v>
@@ -17405,7 +17358,7 @@
         <v>62</v>
       </c>
       <c r="K17" s="107" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L17" s="130"/>
     </row>
@@ -17423,7 +17376,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F18" s="125" t="s">
         <v>27</v>
@@ -17489,7 +17442,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F20" s="125" t="s">
         <v>17</v>
@@ -17511,19 +17464,19 @@
     </row>
     <row r="21" spans="1:12" ht="57.6">
       <c r="A21" s="126" t="s">
+        <v>510</v>
+      </c>
+      <c r="B21" s="74" t="s">
         <v>511</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="C21" s="126" t="s">
         <v>512</v>
-      </c>
-      <c r="C21" s="126" t="s">
-        <v>513</v>
       </c>
       <c r="D21" s="127" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="127" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F21" s="128" t="s">
         <v>27</v>
@@ -17541,7 +17494,7 @@
         <v>76</v>
       </c>
       <c r="K21" s="107" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L21" s="130"/>
     </row>
@@ -17559,7 +17512,7 @@
         <v>266</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F22" s="125" t="s">
         <v>17</v>
@@ -17593,7 +17546,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="127" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F23" s="128" t="s">
         <v>17</v>
@@ -17611,7 +17564,7 @@
         <v>76</v>
       </c>
       <c r="K23" s="106" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L23" s="198"/>
     </row>
@@ -18091,12 +18044,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18343,21 +18299,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18382,12 +18338,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/Metadata_CoreGenericHealth_v2.xlsx
+++ b/Documents/Metadata_CoreGenericHealth_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GitHub/health-ri-metadata/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3216" documentId="13_ncr:1_{F400FBA4-788C-A049-BCFC-7AF7AD8163AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B34781B7-C461-4DB0-AF31-0C0F180972E1}"/>
+  <xr:revisionPtr revIDLastSave="3225" documentId="13_ncr:1_{F400FBA4-788C-A049-BCFC-7AF7AD8163AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC6F41C7-8696-4345-9896-16B847EC9B3E}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="14" r:id="rId1"/>
@@ -2566,7 +2566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2980,9 +2980,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3020,9 +3017,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3195,28 +3189,37 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3228,14 +3231,17 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6817,7 +6823,7 @@
     <col min="11" max="11" width="22.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="206" customFormat="1" ht="43.2">
+    <row r="1" spans="1:12" s="204" customFormat="1" ht="43.2">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -6848,7 +6854,7 @@
       <c r="J1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="203" t="s">
+      <c r="K1" s="201" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="108" t="s">
@@ -6856,7 +6862,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="72">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="197" t="s">
         <v>518</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -6865,29 +6871,29 @@
       <c r="C2" s="76" t="s">
         <v>520</v>
       </c>
-      <c r="D2" s="199" t="s">
+      <c r="D2" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="200" t="s">
+      <c r="E2" s="198" t="s">
         <v>521</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="162" t="s">
+      <c r="G2" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="201" t="s">
+      <c r="H2" s="199" t="s">
         <v>522</v>
       </c>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="159"/>
-      <c r="L2" s="189"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="187"/>
     </row>
     <row r="3" spans="1:12" ht="28.8">
       <c r="A3" s="68" t="s">
@@ -6902,24 +6908,24 @@
       <c r="D3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166" t="s">
+      <c r="E3" s="163"/>
+      <c r="F3" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="163" t="s">
+      <c r="J3" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="198"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="196"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F3">
@@ -8999,13 +9005,13 @@
       <c r="D2" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="E2" s="200" t="s">
+      <c r="E2" s="198" t="s">
         <v>600</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="205" t="s">
         <v>601</v>
       </c>
       <c r="H2" s="47">
@@ -9669,8 +9675,8 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9690,7 +9696,7 @@
     <col min="13" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="202" customFormat="1" ht="41.4">
+    <row r="1" spans="1:12" s="200" customFormat="1" ht="41.4">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -10047,12 +10053,12 @@
       <c r="J10" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="209" t="s">
+      <c r="K10" s="207" t="s">
         <v>77</v>
       </c>
       <c r="L10" s="107"/>
     </row>
-    <row r="11" spans="1:12" s="210" customFormat="1">
+    <row r="11" spans="1:12" s="208" customFormat="1">
       <c r="A11" s="126" t="s">
         <v>78</v>
       </c>
@@ -10065,7 +10071,7 @@
       <c r="D11" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="142" t="s">
+      <c r="E11" s="141" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="128" t="s">
@@ -10132,7 +10138,7 @@
       <c r="C13" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="143" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="80" t="s">
@@ -10159,102 +10165,102 @@
       <c r="L13" s="130"/>
     </row>
     <row r="14" spans="1:12" ht="43.2">
-      <c r="A14" s="216" t="s">
+      <c r="A14" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="219" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="216" t="s">
+      <c r="C14" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="228" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="220" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="218" t="s">
+      <c r="F14" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="218" t="s">
+      <c r="G14" s="217" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="218" t="s">
+      <c r="H14" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="220" t="s">
+      <c r="I14" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="220" t="s">
+      <c r="J14" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="221"/>
-      <c r="L14" s="220"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="215"/>
     </row>
     <row r="15" spans="1:12" ht="43.2">
-      <c r="A15" s="216"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="155" t="s">
+      <c r="A15" s="218"/>
+      <c r="B15" s="219"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="219"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="221"/>
-      <c r="L15" s="220"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="215"/>
+      <c r="K15" s="216"/>
+      <c r="L15" s="215"/>
     </row>
     <row r="16" spans="1:12" ht="28.8">
-      <c r="A16" s="216"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="155" t="s">
+      <c r="A16" s="218"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="229" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="219"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="220"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="220"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="217"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="215"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="216"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="155" t="s">
+      <c r="A17" s="218"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="219"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="221"/>
-      <c r="L17" s="220"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="215"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="216"/>
-      <c r="B18" s="217"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="155" t="s">
+      <c r="A18" s="218"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="219"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="221"/>
-      <c r="L18" s="220"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="215"/>
+      <c r="J18" s="215"/>
+      <c r="K18" s="216"/>
+      <c r="L18" s="215"/>
     </row>
     <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="126" t="s">
@@ -10287,7 +10293,7 @@
       <c r="J19" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="211" t="s">
+      <c r="K19" s="209" t="s">
         <v>110</v>
       </c>
       <c r="L19" s="130"/>
@@ -10341,7 +10347,7 @@
       <c r="D21" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="212" t="s">
+      <c r="E21" s="210" t="s">
         <v>119</v>
       </c>
       <c r="F21" s="128" t="s">
@@ -10429,7 +10435,7 @@
       <c r="J23" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="211" t="s">
+      <c r="K23" s="209" t="s">
         <v>131</v>
       </c>
       <c r="L23" s="130"/>
@@ -10441,7 +10447,7 @@
       <c r="B24" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="142" t="s">
         <v>134</v>
       </c>
       <c r="D24" s="133" t="s">
@@ -10480,7 +10486,7 @@
       <c r="C25" s="135" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="143" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="127" t="s">
@@ -10501,7 +10507,7 @@
       <c r="J25" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="213" t="s">
+      <c r="K25" s="211" t="s">
         <v>143</v>
       </c>
       <c r="L25" s="130"/>
@@ -10513,7 +10519,7 @@
       <c r="B26" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="142" t="s">
         <v>146</v>
       </c>
       <c r="D26" s="123" t="s">
@@ -10585,7 +10591,7 @@
       <c r="B28" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="142" t="s">
         <v>159</v>
       </c>
       <c r="D28" s="133" t="s">
@@ -10768,7 +10774,7 @@
       <c r="C33" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="144" t="s">
+      <c r="D33" s="143" t="s">
         <v>188</v>
       </c>
       <c r="E33" s="80" t="s">
@@ -10843,7 +10849,7 @@
       <c r="D35" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="208" t="s">
+      <c r="E35" s="206" t="s">
         <v>200</v>
       </c>
       <c r="F35" s="128" t="s">
@@ -11160,7 +11166,7 @@
       <c r="C44" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="D44" s="184" t="s">
+      <c r="D44" s="182" t="s">
         <v>249</v>
       </c>
       <c r="E44" s="133" t="s">
@@ -11229,7 +11235,7 @@
       <c r="B46" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="143" t="s">
+      <c r="C46" s="142" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="133" t="s">
@@ -11268,7 +11274,7 @@
       <c r="C47" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="D47" s="144" t="s">
+      <c r="D47" s="143" t="s">
         <v>266</v>
       </c>
       <c r="E47" s="74" t="s">
@@ -11340,7 +11346,7 @@
       <c r="C49" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="186" t="s">
         <v>276</v>
       </c>
       <c r="E49" s="83" t="s">
@@ -11471,18 +11477,18 @@
       <c r="L52" s="107"/>
     </row>
     <row r="53" spans="1:12" s="119" customFormat="1">
-      <c r="A53" s="147"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="151"/>
-      <c r="K53" s="152"/>
-      <c r="L53" s="151"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="150"/>
+      <c r="K53" s="151"/>
+      <c r="L53" s="150"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -11490,17 +11496,17 @@
     <sortCondition ref="A2:A53"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="E14:E18"/>
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="I14:I18"/>
     <mergeCell ref="J14:J18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="E14:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F14 F19:F53">
     <cfRule type="cellIs" dxfId="190" priority="8" operator="equal">
@@ -11605,7 +11611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -11625,7 +11631,7 @@
     <col min="13" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="202" customFormat="1" ht="57.6">
+    <row r="1" spans="1:12" s="200" customFormat="1" ht="57.6">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -11670,7 +11676,7 @@
       <c r="B2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="142" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="133" t="s">
@@ -11872,102 +11878,102 @@
       <c r="L7" s="130"/>
     </row>
     <row r="8" spans="1:12" ht="28.8">
-      <c r="A8" s="216" t="s">
+      <c r="A8" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="222" t="s">
+      <c r="B8" s="221" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="216" t="s">
+      <c r="C8" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="228" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="219" t="s">
+      <c r="E8" s="220" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="218" t="s">
+      <c r="F8" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="218" t="s">
+      <c r="G8" s="217" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="218" t="s">
+      <c r="H8" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="220" t="s">
+      <c r="I8" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="220" t="s">
+      <c r="J8" s="215" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="138"/>
-      <c r="L8" s="220"/>
+      <c r="L8" s="215"/>
     </row>
     <row r="9" spans="1:12" ht="28.8">
-      <c r="A9" s="216"/>
-      <c r="B9" s="222"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="155" t="s">
+      <c r="A9" s="218"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="219"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
       <c r="K9" s="138"/>
-      <c r="L9" s="220"/>
+      <c r="L9" s="215"/>
     </row>
     <row r="10" spans="1:12" ht="28.8">
-      <c r="A10" s="216"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="155" t="s">
+      <c r="A10" s="218"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="229" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="219"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="220"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="215"/>
       <c r="K10" s="138"/>
-      <c r="L10" s="220"/>
+      <c r="L10" s="215"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="216"/>
-      <c r="B11" s="222"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="155" t="s">
+      <c r="A11" s="218"/>
+      <c r="B11" s="221"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="219"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="220"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="220"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="215"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="216"/>
-      <c r="B12" s="222"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="155" t="s">
+      <c r="A12" s="218"/>
+      <c r="B12" s="221"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="219"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="220"/>
-      <c r="J12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="215"/>
       <c r="K12" s="138"/>
-      <c r="L12" s="220"/>
+      <c r="L12" s="215"/>
     </row>
     <row r="13" spans="1:12" ht="43.2">
       <c r="A13" s="126" t="s">
@@ -12016,7 +12022,7 @@
       <c r="D14" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="143" t="s">
+      <c r="E14" s="142" t="s">
         <v>315</v>
       </c>
       <c r="F14" s="125" t="s">
@@ -12047,7 +12053,7 @@
       <c r="C15" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="157" t="s">
+      <c r="D15" s="155" t="s">
         <v>140</v>
       </c>
       <c r="E15" s="74" t="s">
@@ -12068,7 +12074,7 @@
       <c r="J15" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="158" t="s">
+      <c r="K15" s="156" t="s">
         <v>143</v>
       </c>
       <c r="L15" s="130"/>
@@ -12080,10 +12086,10 @@
       <c r="B16" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="144" t="s">
         <v>320</v>
       </c>
       <c r="E16" s="35" t="s">
@@ -12104,7 +12110,7 @@
       <c r="J16" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="158" t="s">
+      <c r="K16" s="156" t="s">
         <v>323</v>
       </c>
       <c r="L16" s="107"/>
@@ -12138,7 +12144,7 @@
       <c r="J17" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="158" t="s">
+      <c r="K17" s="156" t="s">
         <v>167</v>
       </c>
       <c r="L17" s="130"/>
@@ -12150,7 +12156,7 @@
       <c r="B18" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="142" t="s">
         <v>199</v>
       </c>
       <c r="D18" s="133" t="s">
@@ -12174,7 +12180,7 @@
       <c r="J18" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="158" t="s">
+      <c r="K18" s="156" t="s">
         <v>201</v>
       </c>
       <c r="L18" s="107"/>
@@ -12208,7 +12214,7 @@
       <c r="J19" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="211" t="s">
+      <c r="K19" s="209" t="s">
         <v>229</v>
       </c>
       <c r="L19" s="130"/>
@@ -12226,7 +12232,7 @@
       <c r="D20" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="214" t="s">
+      <c r="E20" s="212" t="s">
         <v>328</v>
       </c>
       <c r="F20" s="125" t="s">
@@ -12346,7 +12352,7 @@
       <c r="J23" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="211"/>
+      <c r="K23" s="209"/>
       <c r="L23" s="130"/>
     </row>
     <row r="24" spans="1:12" ht="28.8">
@@ -12362,7 +12368,7 @@
       <c r="D24" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="215" t="s">
+      <c r="E24" s="213" t="s">
         <v>338</v>
       </c>
       <c r="F24" s="125" t="s">
@@ -12890,28 +12896,28 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" style="181" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="181" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="181" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" style="178" customWidth="1"/>
-    <col min="5" max="5" width="65.88671875" style="181" customWidth="1"/>
+    <col min="1" max="1" width="18" style="179" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="179" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="179" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="176" customWidth="1"/>
+    <col min="5" max="5" width="65.88671875" style="179" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="137" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="183" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5546875" style="137" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="137" customWidth="1"/>
-    <col min="11" max="11" width="39.33203125" style="159" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="157" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="26.6640625" style="137" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="204" customFormat="1" ht="43.2">
+    <row r="1" spans="1:12" s="202" customFormat="1" ht="43.2">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -12942,7 +12948,7 @@
       <c r="J1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="203" t="s">
+      <c r="K1" s="201" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="108" t="s">
@@ -12953,32 +12959,32 @@
       <c r="A2" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="158" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="153" t="s">
         <v>340</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="159" t="s">
         <v>341</v>
       </c>
-      <c r="F2" s="162" t="s">
+      <c r="F2" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="162" t="s">
+      <c r="G2" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="162" t="s">
+      <c r="H2" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="163"/>
-      <c r="K2" s="164"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="107"/>
     </row>
     <row r="3" spans="1:12" ht="100.8">
@@ -12991,25 +12997,25 @@
       <c r="C3" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="163" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="164" t="s">
         <v>346</v>
       </c>
-      <c r="H3" s="166">
+      <c r="H3" s="164">
         <v>1</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="163" t="s">
+      <c r="J3" s="161" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="137" t="s">
@@ -13021,7 +13027,7 @@
       <c r="A4" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="158" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="64" t="s">
@@ -13030,22 +13036,22 @@
       <c r="D4" s="71" t="s">
         <v>348</v>
       </c>
-      <c r="E4" s="161" t="s">
+      <c r="E4" s="159" t="s">
         <v>349</v>
       </c>
-      <c r="F4" s="162" t="s">
+      <c r="F4" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="162" t="s">
+      <c r="G4" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="163" t="s">
+      <c r="I4" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="163" t="s">
+      <c r="J4" s="161" t="s">
         <v>350</v>
       </c>
       <c r="K4" s="137" t="s">
@@ -13054,13 +13060,13 @@
       <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:12" ht="43.2">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="166" t="s">
         <v>352</v>
       </c>
       <c r="B5" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="166" t="s">
         <v>354</v>
       </c>
       <c r="D5" s="127" t="s">
@@ -13069,19 +13075,19 @@
       <c r="E5" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="F5" s="169" t="s">
+      <c r="F5" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="169" t="s">
+      <c r="G5" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="169" t="s">
+      <c r="H5" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="170" t="s">
+      <c r="I5" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="163" t="s">
+      <c r="J5" s="161" t="s">
         <v>76</v>
       </c>
       <c r="K5" s="137" t="s">
@@ -13090,19 +13096,19 @@
       <c r="L5" s="130"/>
     </row>
     <row r="6" spans="1:12" ht="72">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="169" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="152" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="169" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="153" t="s">
+      <c r="E6" s="152" t="s">
         <v>360</v>
       </c>
       <c r="F6" s="134" t="s">
@@ -13114,13 +13120,13 @@
       <c r="H6" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="I6" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="173" t="s">
+      <c r="J6" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="164"/>
+      <c r="K6" s="162"/>
       <c r="L6" s="107"/>
     </row>
     <row r="7" spans="1:12" ht="115.2">
@@ -13133,7 +13139,7 @@
       <c r="C7" s="126" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="174" t="s">
+      <c r="D7" s="172" t="s">
         <v>364</v>
       </c>
       <c r="E7" s="81" t="s">
@@ -13151,41 +13157,41 @@
       <c r="I7" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="173" t="s">
+      <c r="J7" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="164"/>
+      <c r="K7" s="162"/>
       <c r="L7" s="130"/>
     </row>
     <row r="8" spans="1:12" ht="28.8">
       <c r="A8" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="158" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="173" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="144" t="s">
         <v>364</v>
       </c>
       <c r="E8" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="F8" s="162" t="s">
+      <c r="F8" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="162" t="s">
+      <c r="G8" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="162" t="s">
+      <c r="H8" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="163" t="s">
+      <c r="I8" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="163" t="s">
+      <c r="J8" s="161" t="s">
         <v>76</v>
       </c>
       <c r="K8" s="137" t="s">
@@ -13194,34 +13200,34 @@
       <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:12" ht="43.2">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="166" t="s">
         <v>368</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="166" t="s">
         <v>314</v>
       </c>
-      <c r="D9" s="176" t="s">
+      <c r="D9" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="176" t="s">
+      <c r="E9" s="174" t="s">
         <v>369</v>
       </c>
-      <c r="F9" s="169" t="s">
+      <c r="F9" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="169" t="s">
+      <c r="G9" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="169">
+      <c r="H9" s="167">
         <v>1</v>
       </c>
-      <c r="I9" s="170" t="s">
+      <c r="I9" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="163" t="s">
+      <c r="J9" s="161" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="137" t="s">
@@ -13230,594 +13236,594 @@
       <c r="L9" s="130"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="177"/>
-      <c r="B10" s="178"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="179"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="177"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
       <c r="K10" s="98"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="177"/>
-      <c r="B11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
       <c r="K11" s="99"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="177"/>
-      <c r="B12" s="178"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
+      <c r="A12" s="175"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
       <c r="K12" s="98"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="177"/>
-      <c r="B13" s="178"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="98"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="177"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
+      <c r="A14" s="175"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
       <c r="K14" s="98"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="177"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
+      <c r="A15" s="175"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
       <c r="K15" s="98"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="177"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="179"/>
+      <c r="A16" s="175"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="177"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
       <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="177"/>
-      <c r="B17" s="178"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
+      <c r="A17" s="175"/>
+      <c r="B17" s="176"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
       <c r="K17" s="98"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="177"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="177"/>
+      <c r="A18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="123"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
       <c r="K18" s="98"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="177"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
+      <c r="A19" s="175"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
       <c r="K19" s="101"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="177"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
+      <c r="A20" s="175"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
       <c r="K20" s="99"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="177"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
+      <c r="A21" s="175"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
       <c r="K21" s="98"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="177"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="179"/>
+      <c r="A22" s="175"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="177"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
       <c r="K22" s="98"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="177"/>
-      <c r="B23" s="178"/>
+      <c r="A23" s="175"/>
+      <c r="B23" s="176"/>
       <c r="D23" s="123"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
       <c r="K23" s="98"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="177"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
       <c r="K24" s="100"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="177"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
+      <c r="A25" s="175"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
       <c r="K25" s="98"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="177"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
+      <c r="A26" s="175"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
       <c r="K26" s="100"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="177"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
+      <c r="A27" s="175"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
       <c r="K27" s="98"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="177"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="179"/>
+      <c r="A28" s="175"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="177"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
       <c r="K28" s="98"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="177"/>
-      <c r="B29" s="178"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
+      <c r="A29" s="175"/>
+      <c r="B29" s="176"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
       <c r="K29" s="98"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="177"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
+      <c r="A30" s="175"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="98"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="177"/>
-      <c r="B31" s="178"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159"/>
+      <c r="A31" s="175"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="98"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="177"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="177"/>
+      <c r="A32" s="175"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="175"/>
       <c r="D32" s="123"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
       <c r="K32" s="98"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="177"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
+      <c r="A33" s="175"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
       <c r="K33" s="98"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="177"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="179"/>
+      <c r="A34" s="175"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
       <c r="K34" s="98"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="177"/>
-      <c r="B35" s="178"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="159"/>
+      <c r="A35" s="175"/>
+      <c r="B35" s="176"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
       <c r="K35" s="98"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="177"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
+      <c r="A36" s="175"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
       <c r="K36" s="98"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="177"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="159"/>
+      <c r="A37" s="175"/>
+      <c r="B37" s="176"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
       <c r="K37" s="98"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="177"/>
-      <c r="B38" s="178"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
+      <c r="A38" s="175"/>
+      <c r="B38" s="176"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
       <c r="K38" s="98"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="177"/>
-      <c r="B39" s="178"/>
-      <c r="C39" s="182"/>
+      <c r="A39" s="175"/>
+      <c r="B39" s="176"/>
+      <c r="C39" s="180"/>
       <c r="D39" s="123"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="159"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
       <c r="K39" s="98"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="177"/>
-      <c r="B40" s="178"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="179"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="159"/>
+      <c r="A40" s="175"/>
+      <c r="B40" s="176"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
       <c r="K40" s="98"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="177"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
+      <c r="A41" s="175"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
       <c r="K41" s="98"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="177"/>
-      <c r="B42" s="178"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
+      <c r="A42" s="175"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
       <c r="K42" s="98"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="177"/>
-      <c r="B43" s="178"/>
-      <c r="C43" s="182"/>
+      <c r="A43" s="175"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="180"/>
       <c r="D43" s="123"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="159"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
       <c r="K43" s="98"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="177"/>
-      <c r="B44" s="178"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="179"/>
+      <c r="A44" s="175"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="175"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="159"/>
-      <c r="J44" s="159"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="157"/>
       <c r="K44" s="98"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="177"/>
-      <c r="B45" s="178"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="159"/>
+      <c r="A45" s="175"/>
+      <c r="B45" s="176"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="177"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
       <c r="K45" s="98"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="177"/>
-      <c r="B46" s="178"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="179"/>
-      <c r="E46" s="179"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="159"/>
-      <c r="J46" s="159"/>
+      <c r="A46" s="175"/>
+      <c r="B46" s="176"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
       <c r="K46" s="98"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="177"/>
-      <c r="B47" s="178"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="179"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="180"/>
-      <c r="G47" s="180"/>
-      <c r="H47" s="180"/>
-      <c r="I47" s="159"/>
-      <c r="J47" s="159"/>
+      <c r="A47" s="175"/>
+      <c r="B47" s="176"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
       <c r="K47" s="98"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="177"/>
-      <c r="B48" s="178"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="179"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
-      <c r="I48" s="159"/>
-      <c r="J48" s="159"/>
+      <c r="A48" s="175"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="177"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="157"/>
       <c r="K48" s="98"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="177"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="180"/>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
-      <c r="I49" s="159"/>
-      <c r="J49" s="159"/>
+      <c r="A49" s="175"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="180"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="181"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="178"/>
+      <c r="H49" s="178"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
       <c r="K49" s="98"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="177"/>
-      <c r="B50" s="178"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="179"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="159"/>
+      <c r="A50" s="175"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="178"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="157"/>
       <c r="K50" s="98"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="177"/>
-      <c r="B51" s="178"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="179"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="159"/>
-      <c r="J51" s="159"/>
+      <c r="A51" s="175"/>
+      <c r="B51" s="176"/>
+      <c r="C51" s="175"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="178"/>
+      <c r="H51" s="178"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="157"/>
       <c r="K51" s="98"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="177"/>
-      <c r="B52" s="178"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="184"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="159"/>
-      <c r="J52" s="159"/>
+      <c r="A52" s="175"/>
+      <c r="B52" s="176"/>
+      <c r="C52" s="175"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="177"/>
+      <c r="F52" s="178"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="178"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="157"/>
       <c r="K52" s="98"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="177"/>
-      <c r="B53" s="178"/>
-      <c r="D53" s="179"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="180"/>
-      <c r="G53" s="180"/>
-      <c r="H53" s="180"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
+      <c r="A53" s="175"/>
+      <c r="B53" s="176"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="178"/>
+      <c r="G53" s="178"/>
+      <c r="H53" s="178"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
       <c r="K53" s="98"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="177"/>
-      <c r="B54" s="178"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="179"/>
-      <c r="E54" s="179"/>
-      <c r="F54" s="180"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="180"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="159"/>
+      <c r="A54" s="175"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="175"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="178"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
       <c r="K54" s="98"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="177"/>
-      <c r="B55" s="178"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="179"/>
-      <c r="E55" s="179"/>
-      <c r="F55" s="180"/>
-      <c r="G55" s="180"/>
-      <c r="H55" s="180"/>
-      <c r="I55" s="159"/>
-      <c r="J55" s="159"/>
+      <c r="A55" s="175"/>
+      <c r="B55" s="176"/>
+      <c r="C55" s="175"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="178"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="157"/>
       <c r="K55" s="98"/>
     </row>
     <row r="56" spans="1:11">
@@ -13927,7 +13933,7 @@
     <col min="13" max="16384" width="8.88671875" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="204" customFormat="1" ht="57.6">
+    <row r="1" spans="1:12" s="202" customFormat="1" ht="57.6">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -13958,7 +13964,7 @@
       <c r="J1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="203" t="s">
+      <c r="K1" s="201" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="108" t="s">
@@ -13972,7 +13978,7 @@
       <c r="B2" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="173" t="s">
         <v>373</v>
       </c>
       <c r="D2" s="64" t="s">
@@ -13981,22 +13987,22 @@
       <c r="E2" s="88" t="s">
         <v>374</v>
       </c>
-      <c r="F2" s="162" t="s">
+      <c r="F2" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="162" t="s">
+      <c r="G2" s="160" t="s">
         <v>346</v>
       </c>
-      <c r="H2" s="162" t="s">
+      <c r="H2" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="159" t="s">
+      <c r="K2" s="157" t="s">
         <v>375</v>
       </c>
       <c r="L2" s="137"/>
@@ -14011,28 +14017,28 @@
       <c r="C3" s="68" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="186" t="s">
+      <c r="D3" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="187" t="s">
+      <c r="E3" s="185" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="164" t="s">
         <v>346</v>
       </c>
-      <c r="H3" s="166">
+      <c r="H3" s="164">
         <v>1</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="163" t="s">
+      <c r="J3" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="159" t="s">
+      <c r="K3" s="157" t="s">
         <v>380</v>
       </c>
       <c r="L3" s="137"/>
@@ -14053,22 +14059,22 @@
       <c r="E4" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="F4" s="162" t="s">
+      <c r="F4" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="162" t="s">
+      <c r="G4" s="160" t="s">
         <v>385</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="160">
         <v>1</v>
       </c>
-      <c r="I4" s="163" t="s">
+      <c r="I4" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="163" t="s">
+      <c r="J4" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="159" t="s">
+      <c r="K4" s="157" t="s">
         <v>386</v>
       </c>
       <c r="L4" s="137"/>
@@ -14786,8 +14792,8 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -14808,7 +14814,7 @@
     <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="204" customFormat="1" ht="57.6">
+    <row r="1" spans="1:12" s="202" customFormat="1" ht="57.6">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -14839,7 +14845,7 @@
       <c r="J1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="203" t="s">
+      <c r="K1" s="201" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="108" t="s">
@@ -15036,7 +15042,7 @@
       <c r="C7" s="135" t="s">
         <v>412</v>
       </c>
-      <c r="D7" s="188" t="s">
+      <c r="D7" s="186" t="s">
         <v>413</v>
       </c>
       <c r="E7" s="127" t="s">
@@ -15045,7 +15051,7 @@
       <c r="F7" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="159" t="s">
+      <c r="G7" s="157" t="s">
         <v>415</v>
       </c>
       <c r="H7" s="128" t="s">
@@ -15108,7 +15114,7 @@
       <c r="C9" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="190" t="s">
+      <c r="D9" s="188" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="127" t="s">
@@ -15141,7 +15147,7 @@
       <c r="B10" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="142" t="s">
         <v>423</v>
       </c>
       <c r="D10" s="133" t="s">
@@ -15180,7 +15186,7 @@
       <c r="C11" s="126" t="s">
         <v>428</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="155" t="s">
         <v>429</v>
       </c>
       <c r="E11" s="127" t="s">
@@ -15216,7 +15222,7 @@
       <c r="C12" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="191" t="s">
+      <c r="D12" s="189" t="s">
         <v>140</v>
       </c>
       <c r="E12" s="139" t="s">
@@ -15252,7 +15258,7 @@
       <c r="C13" s="126" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="143" t="s">
         <v>320</v>
       </c>
       <c r="E13" s="80" t="s">
@@ -15324,7 +15330,7 @@
       <c r="C15" s="126" t="s">
         <v>444</v>
       </c>
-      <c r="D15" s="188" t="s">
+      <c r="D15" s="186" t="s">
         <v>413</v>
       </c>
       <c r="E15" s="80" t="s">
@@ -15357,10 +15363,10 @@
       <c r="B16" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="192" t="s">
+      <c r="D16" s="190" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="133"/>
@@ -15394,7 +15400,7 @@
       <c r="C17" s="126" t="s">
         <v>450</v>
       </c>
-      <c r="D17" s="188" t="s">
+      <c r="D17" s="186" t="s">
         <v>413</v>
       </c>
       <c r="E17" s="74" t="s">
@@ -15504,7 +15510,7 @@
       <c r="E20" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="F20" s="193" t="s">
+      <c r="F20" s="191" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="125" t="s">
@@ -15534,7 +15540,7 @@
       <c r="C21" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="157" t="s">
+      <c r="D21" s="155" t="s">
         <v>458</v>
       </c>
       <c r="E21" s="81" t="s">
@@ -16054,7 +16060,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -16074,7 +16080,7 @@
     <col min="13" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="202" customFormat="1" ht="43.2">
+    <row r="1" spans="1:12" s="200" customFormat="1" ht="43.2">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -16105,7 +16111,7 @@
       <c r="J1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="203" t="s">
+      <c r="K1" s="201" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="108" t="s">
@@ -16113,7 +16119,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="192" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="74" t="s">
@@ -16134,10 +16140,10 @@
       <c r="G2" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="195" t="s">
+      <c r="I2" s="193" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="107" t="s">
@@ -16255,104 +16261,104 @@
       <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:12" ht="28.8">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="225" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="225" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="226" t="s">
+      <c r="E6" s="227" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="223" t="s">
+      <c r="F6" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="223" t="s">
+      <c r="G6" s="224" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="223" t="s">
+      <c r="H6" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="227" t="s">
+      <c r="I6" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="220" t="s">
+      <c r="J6" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="228" t="s">
+      <c r="K6" s="223" t="s">
         <v>471</v>
       </c>
-      <c r="L6" s="227"/>
+      <c r="L6" s="222"/>
     </row>
     <row r="7" spans="1:12" ht="28.8">
-      <c r="A7" s="224"/>
-      <c r="B7" s="225"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="141" t="s">
+      <c r="A7" s="225"/>
+      <c r="B7" s="226"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="231" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="222"/>
     </row>
     <row r="8" spans="1:12" ht="28.8">
-      <c r="A8" s="224"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="141" t="s">
+      <c r="A8" s="225"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="231" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="226"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="228"/>
-      <c r="L8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="222"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="224"/>
-      <c r="B9" s="225"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="141" t="s">
+      <c r="A9" s="225"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="226"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="228"/>
-      <c r="L9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="222"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="224"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="141" t="s">
+      <c r="A10" s="225"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="226"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="228"/>
-      <c r="L10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="222"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="122" t="s">
@@ -16484,10 +16490,10 @@
       <c r="G14" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="196" t="s">
+      <c r="H14" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="196" t="s">
+      <c r="I14" s="194" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="107" t="s">
@@ -16657,17 +16663,17 @@
   </sheetData>
   <autoFilter ref="A1:L15" xr:uid="{FBE7E653-2382-46E4-9C76-9C694EDC9195}"/>
   <mergeCells count="11">
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="J6:J10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="F6:F10"/>
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6 F11:F15">
     <cfRule type="cellIs" dxfId="127" priority="7" operator="equal">
@@ -16759,7 +16765,7 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
@@ -16780,7 +16786,7 @@
     <col min="12" max="12" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="205" customFormat="1" ht="43.2">
+    <row r="1" spans="1:12" s="203" customFormat="1" ht="43.2">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -16811,7 +16817,7 @@
       <c r="J1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="203" t="s">
+      <c r="K1" s="201" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="108" t="s">
@@ -16828,7 +16834,7 @@
       <c r="C2" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="144" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="82" t="s">
@@ -16852,7 +16858,7 @@
       <c r="K2" s="107" t="s">
         <v>481</v>
       </c>
-      <c r="L2" s="189"/>
+      <c r="L2" s="187"/>
     </row>
     <row r="3" spans="1:12" ht="28.8">
       <c r="A3" s="126" t="s">
@@ -16899,7 +16905,7 @@
       <c r="D4" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="197" t="s">
+      <c r="E4" s="195" t="s">
         <v>483</v>
       </c>
       <c r="F4" s="125" t="s">
@@ -16921,7 +16927,7 @@
       <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:12" ht="72">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="192" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="74" t="s">
@@ -16933,7 +16939,7 @@
       <c r="D5" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="141" t="s">
         <v>484</v>
       </c>
       <c r="F5" s="128" t="s">
@@ -17069,7 +17075,7 @@
       <c r="D9" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="229" t="s">
+      <c r="E9" s="214" t="s">
         <v>606</v>
       </c>
       <c r="F9" s="128" t="s">
@@ -17138,7 +17144,7 @@
       <c r="C11" s="135" t="s">
         <v>428</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="155" t="s">
         <v>429</v>
       </c>
       <c r="E11" s="127"/>
@@ -17193,7 +17199,7 @@
       <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:12" ht="57.6">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="192" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="74" t="s">
@@ -17302,7 +17308,7 @@
       <c r="C16" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="191" t="s">
+      <c r="D16" s="189" t="s">
         <v>140</v>
       </c>
       <c r="E16" s="35" t="s">
@@ -17336,7 +17342,7 @@
       <c r="C17" s="126" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="144" t="s">
+      <c r="D17" s="143" t="s">
         <v>320</v>
       </c>
       <c r="E17" s="80" t="s">
@@ -17508,7 +17514,7 @@
       <c r="C22" s="122" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="145" t="s">
+      <c r="D22" s="144" t="s">
         <v>266</v>
       </c>
       <c r="E22" s="35" t="s">
@@ -17566,7 +17572,7 @@
       <c r="K23" s="106" t="s">
         <v>517</v>
       </c>
-      <c r="L23" s="198"/>
+      <c r="L23" s="196"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="23"/>
@@ -18044,15 +18050,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18299,21 +18302,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">Draft</Status>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18338,9 +18341,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/Metadata_CoreGenericHealth_v2.xlsx
+++ b/Documents/Metadata_CoreGenericHealth_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/lucie_kulhankova_health-ri_nl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFDBD4BD-8827-48F6-A70B-F430D1049778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B604F9AE-9787-411E-AB68-6C0D2821F0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="14" r:id="rId1"/>
@@ -1017,9 +1017,9 @@
         <rFont val="Aptos Display"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve">This property makes use of another small class (prov:Attribution). There, you can choose one of the roles as listed in the controlled vocabulary and link that to a specific Agent (expressed with foaf:Agent). Note that for HealthDCAT-AP, the list of roles might be extended in the future.
-Example: https://standards.iso.org/iso/19115/resources/Codelists/gml/CI_RoleCode.xml#processor
-Next to the CI_RoleCodes, we propose that the CRediT Taxonomy can also be used: https://jats4r.niso.org/credit-taxonomy/#table-1-credit-terms-and-urls
+      <t xml:space="preserve">This property makes use of another small class (prov:Attribution). There, you can choose one of the roles as listed in the controlled vocabulary and link that to a specific Agent (expressed with foaf:Agent).
+Repeat this property if you wish to specify multiple roles for the same agent.
+Refer to the Attribution class for more information how to fill this.
 Use this property if you would like to indicate the </t>
     </r>
     <r>
@@ -1039,8 +1039,27 @@
         <rFont val="Aptos Display"/>
         <scheme val="major"/>
       </rPr>
-      <t>of the (research project that resulted in creation of the) dataset.
-The value for role then becomes: https://standards.iso.org/iso/19115/resources/Codelists/gml/CI_RoleCode.xml#funder</t>
+      <t xml:space="preserve">of the (research project that resulted in creation of the) dataset.
+The value for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Display"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">role in the Attribution class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Display"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>then becomes: https://standards.iso.org/iso/19115/resources/Codelists/gml/CI_RoleCode.xml#funder</t>
     </r>
   </si>
   <si>
@@ -11683,9 +11702,9 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -12988,7 +13007,7 @@
       </c>
       <c r="L36" s="107"/>
     </row>
-    <row r="37" spans="1:14" ht="192.75" customHeight="1">
+    <row r="37" spans="1:14" ht="228" customHeight="1">
       <c r="A37" s="125" t="s">
         <v>291</v>
       </c>
@@ -14849,9 +14868,9 @@
   </sheetPr>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+    <sheetView zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>

--- a/Documents/Metadata_CoreGenericHealth_v2.xlsx
+++ b/Documents/Metadata_CoreGenericHealth_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/lucie_kulhankova_health-ri_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GitHub/health-ri-metadata/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B604F9AE-9787-411E-AB68-6C0D2821F0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{B604F9AE-9787-411E-AB68-6C0D2821F0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E62AF80-5461-4F05-88C6-9AD4988BAB39}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-17388" windowWidth="30936" windowHeight="16776" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="14" r:id="rId1"/>
@@ -31,12 +31,12 @@
     <sheet name="Checksum" sheetId="11" r:id="rId16"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Agent!$A$1:$J$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Catalogue!$A$1:$J$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DataService!$A$1:$J$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dataset!$A$1:$J$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">DatasetSeries!$A$1:$L$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Distribution!$A$1:$J$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Agent!$A$1:$J$9</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1414,12 +1414,6 @@
     <t>foaf:mbox</t>
   </si>
   <si>
-    <t>It is preferred to provide a general email address of the appropriate institution or department instead of a personal email address, even if an individual is described with this instance of foaf:Agent.
-This protects their privacy and enables contact about the resource even after the individual has left the institition.
-The email address has to be provided starting with mailto: prefix.
-For example: mailto:info@example.com</t>
-  </si>
-  <si>
     <t>rdfs:Resource  (IRI)</t>
   </si>
   <si>
@@ -1579,12 +1573,6 @@
   </si>
   <si>
     <t>vcard:hasEmail</t>
-  </si>
-  <si>
-    <t>It is preferred to provide a general email address of the appropriate institution or department instead of a personal email address, even if an individual is described with this instance of vcard:Kind.
-This protects their privacy and enables contact about the resource even after the individual has left the institition.
-The email address has to be provided starting with mailto: prefix.
-For example: mailto:info@example.com</t>
   </si>
   <si>
     <t>custom:{property}_email</t>
@@ -2617,6 +2605,18 @@
   </si>
   <si>
     <t>xsd:hexBinary</t>
+  </si>
+  <si>
+    <t>It is preferred to provide a general email address of the appropriate institution or department instead of a personal email address, even if an individual is described with this instance of foaf:Agent.
+This protects their privacy and enables contact about the resource even after the individual has left the institution.
+The email address has to be provided starting with mailto: prefix.
+For example: mailto:info@example.com</t>
+  </si>
+  <si>
+    <t>It is preferred to provide a general email address of the appropriate institution or department instead of a personal email address, even if an individual is described with this instance of vcard:Kind.
+This protects their privacy and enables contact about the resource even after the individual has left the institution.
+The email address has to be provided starting with mailto: prefix.
+For example: mailto:info@example.com</t>
   </si>
 </sst>
 </file>
@@ -3757,6 +3757,15 @@
     <xf numFmtId="0" fontId="53" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3769,13 +3778,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3789,23 +3801,11 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="191">
     <dxf>
@@ -7382,7 +7382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7400,17 +7400,17 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="21.42578125" customWidth="1"/>
-    <col min="15" max="15" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="21.44140625" customWidth="1"/>
+    <col min="15" max="15" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="203" customFormat="1" ht="87">
+    <row r="1" spans="1:15" s="203" customFormat="1" ht="86.4">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -7445,33 +7445,33 @@
         <v>10</v>
       </c>
       <c r="L1" s="219" t="s">
+        <v>559</v>
+      </c>
+      <c r="M1" s="226" t="s">
+        <v>560</v>
+      </c>
+      <c r="N1" s="227" t="s">
         <v>561</v>
       </c>
-      <c r="M1" s="226" t="s">
+      <c r="O1" s="233" t="s">
         <v>562</v>
       </c>
-      <c r="N1" s="227" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="72">
+      <c r="A2" s="196" t="s">
         <v>563</v>
       </c>
-      <c r="O1" s="246" t="s">
+      <c r="B2" s="45" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="87">
-      <c r="A2" s="196" t="s">
+      <c r="C2" s="76" t="s">
         <v>565</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>567</v>
       </c>
       <c r="D2" s="196" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="197" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F2" s="198" t="s">
         <v>35</v>
@@ -7480,7 +7480,7 @@
         <v>58</v>
       </c>
       <c r="H2" s="198" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I2" s="160" t="s">
         <v>20</v>
@@ -7493,15 +7493,15 @@
       <c r="M2" s="186"/>
       <c r="N2" s="186"/>
     </row>
-    <row r="3" spans="1:15" ht="29.25">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="68" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>569</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>570</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>571</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>572</v>
       </c>
       <c r="D3" s="68" t="s">
         <v>16</v>
@@ -7588,30 +7588,30 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="23.85546875" style="221" customWidth="1"/>
-    <col min="14" max="17" width="23.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.140625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="18.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="23.88671875" style="221" customWidth="1"/>
+    <col min="14" max="17" width="23.88671875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.109375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="101.25">
+    <row r="1" spans="1:18" ht="100.8">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -7646,36 +7646,36 @@
         <v>10</v>
       </c>
       <c r="L1" s="219" t="s">
+        <v>571</v>
+      </c>
+      <c r="M1" s="220" t="s">
+        <v>572</v>
+      </c>
+      <c r="N1" s="226" t="s">
         <v>573</v>
       </c>
-      <c r="M1" s="220" t="s">
+      <c r="O1" s="230" t="s">
         <v>574</v>
       </c>
-      <c r="N1" s="226" t="s">
+      <c r="P1" s="227" t="s">
         <v>575</v>
       </c>
-      <c r="O1" s="230" t="s">
+      <c r="Q1" s="231" t="s">
         <v>576</v>
       </c>
-      <c r="P1" s="227" t="s">
+      <c r="R1" s="233" t="s">
         <v>577</v>
       </c>
-      <c r="Q1" s="231" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="58" t="s">
         <v>578</v>
       </c>
-      <c r="R1" s="246" t="s">
+      <c r="B2" s="44" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15">
-      <c r="A2" s="58" t="s">
+      <c r="C2" s="76" t="s">
         <v>580</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>581</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>582</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>16</v>
@@ -7701,15 +7701,15 @@
       <c r="P2" s="221"/>
       <c r="Q2" s="221"/>
     </row>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18">
       <c r="A3" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>583</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>584</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>585</v>
       </c>
       <c r="D3" s="48" t="s">
         <v>16</v>
@@ -8326,22 +8326,22 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="84" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="84" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="84" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" style="84" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" style="84" customWidth="1"/>
-    <col min="6" max="9" width="20.140625" style="84" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="84" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="84" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="23.7109375" style="84" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" style="84" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="84"/>
+    <col min="1" max="1" width="20.109375" style="84" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="84" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="84" customWidth="1"/>
+    <col min="4" max="4" width="62.44140625" style="84" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" style="84" customWidth="1"/>
+    <col min="6" max="9" width="20.109375" style="84" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="84" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="23.6640625" style="84" customWidth="1"/>
+    <col min="15" max="15" width="28.88671875" style="84" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="72.75">
+    <row r="1" spans="1:15" ht="72">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -8376,33 +8376,33 @@
         <v>10</v>
       </c>
       <c r="L1" s="219" t="s">
+        <v>584</v>
+      </c>
+      <c r="M1" s="226" t="s">
+        <v>585</v>
+      </c>
+      <c r="N1" s="227" t="s">
         <v>586</v>
       </c>
-      <c r="M1" s="226" t="s">
+      <c r="O1" s="233" t="s">
         <v>587</v>
       </c>
-      <c r="N1" s="227" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="43.2">
+      <c r="A2" s="84" t="s">
         <v>588</v>
       </c>
-      <c r="O1" s="246" t="s">
+      <c r="B2" s="44" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="43.5">
-      <c r="A2" s="84" t="s">
+      <c r="C2" s="58" t="s">
         <v>590</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>591</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>592</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>17</v>
@@ -8430,21 +8430,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="144.75">
+    <row r="3" spans="1:15" ht="129.6">
       <c r="A3" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="D3" s="234" t="s">
         <v>595</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="E3" s="50" t="s">
         <v>596</v>
-      </c>
-      <c r="D3" s="247" t="s">
-        <v>597</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>598</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>17</v>
@@ -8530,17 +8530,17 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
-    <col min="6" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" customWidth="1"/>
+    <col min="1" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="72.75">
+    <row r="1" spans="1:15" ht="72">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -8575,33 +8575,33 @@
         <v>10</v>
       </c>
       <c r="L1" s="218" t="s">
+        <v>597</v>
+      </c>
+      <c r="M1" s="229" t="s">
+        <v>598</v>
+      </c>
+      <c r="N1" s="228" t="s">
         <v>599</v>
       </c>
-      <c r="M1" s="229" t="s">
+      <c r="O1" s="233" t="s">
         <v>600</v>
       </c>
-      <c r="N1" s="228" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="158.4">
+      <c r="A2" s="84" t="s">
         <v>601</v>
       </c>
-      <c r="O1" s="246" t="s">
+      <c r="B2" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>594</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="159.6">
-      <c r="A2" s="84" t="s">
+      <c r="E2" s="59" t="s">
         <v>603</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>595</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>596</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>604</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>605</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>35</v>
@@ -8620,21 +8620,21 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="57.95">
+    <row r="3" spans="1:15" ht="43.2">
       <c r="A3" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>606</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>607</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>608</v>
       </c>
       <c r="D3" s="116" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>35</v>
@@ -8720,17 +8720,17 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" customWidth="1"/>
+    <col min="1" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="6" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="101.25">
+    <row r="1" spans="1:15" ht="72">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -8765,33 +8765,33 @@
         <v>10</v>
       </c>
       <c r="L1" s="219" t="s">
+        <v>608</v>
+      </c>
+      <c r="M1" s="226" t="s">
+        <v>609</v>
+      </c>
+      <c r="N1" s="227" t="s">
         <v>610</v>
       </c>
-      <c r="M1" s="226" t="s">
+      <c r="O1" s="233" t="s">
         <v>611</v>
       </c>
-      <c r="N1" s="227" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="100.8">
+      <c r="A2" s="84" t="s">
         <v>612</v>
       </c>
-      <c r="O1" s="246" t="s">
+      <c r="B2" s="44" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="101.45">
-      <c r="A2" s="84" t="s">
+      <c r="C2" s="58" t="s">
         <v>614</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>615</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>616</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>17</v>
@@ -8810,21 +8810,21 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="57.95">
+    <row r="3" spans="1:15" ht="57.6">
       <c r="A3" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>618</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>619</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>620</v>
       </c>
       <c r="D3" s="116" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>17</v>
@@ -8908,22 +8908,22 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.95">
+    <row r="1" spans="1:10" ht="57.6">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E1" s="56" t="s">
         <v>4</v>
@@ -8955,15 +8955,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29.1">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="63" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>623</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>624</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>625</v>
       </c>
       <c r="D2" s="43" t="s">
         <v>16</v>
@@ -8971,7 +8971,7 @@
       <c r="E2" s="45"/>
       <c r="F2" s="64"/>
       <c r="G2" s="63" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H2" s="65" t="s">
         <v>81</v>
@@ -8983,15 +8983,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.5">
+    <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>627</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>628</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>629</v>
       </c>
       <c r="D3" s="48" t="s">
         <v>16</v>
@@ -8999,10 +8999,10 @@
       <c r="E3" s="50"/>
       <c r="F3" s="68"/>
       <c r="G3" s="69" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>20</v>
@@ -9011,15 +9011,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.5">
+    <row r="4" spans="1:10" ht="43.2">
       <c r="A4" s="63" t="s">
+        <v>630</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>631</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>632</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>633</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>634</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>16</v>
@@ -9027,10 +9027,10 @@
       <c r="E4" s="53"/>
       <c r="F4" s="64"/>
       <c r="G4" s="63" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I4" s="66" t="s">
         <v>20</v>
@@ -9039,28 +9039,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.5">
+    <row r="5" spans="1:10" ht="43.2">
       <c r="A5" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>636</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>637</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>639</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="67" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I5" s="69" t="s">
         <v>20</v>
@@ -9069,15 +9069,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29.1">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="63" t="s">
+        <v>641</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>642</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>643</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>644</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>645</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>16</v>
@@ -9088,7 +9088,7 @@
         <v>99</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I6" s="66" t="s">
         <v>20</v>
@@ -9097,15 +9097,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="29.1">
+    <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="67" t="s">
+        <v>644</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>645</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>646</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>647</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>648</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>16</v>
@@ -9125,25 +9125,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="87">
+    <row r="8" spans="1:10" ht="86.4">
       <c r="A8" s="63" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>648</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>649</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>650</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>651</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="63" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H8" s="65">
         <v>1</v>
@@ -9155,15 +9155,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="29.1">
+    <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="67" t="s">
+        <v>652</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>654</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>655</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>656</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>16</v>
@@ -9171,7 +9171,7 @@
       <c r="E9" s="50"/>
       <c r="F9" s="68"/>
       <c r="G9" s="69" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>81</v>
@@ -9183,25 +9183,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29.1">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="63" t="s">
+        <v>656</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>657</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>658</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>659</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>660</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="63" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H10" s="65" t="s">
         <v>19</v>
@@ -9616,25 +9616,25 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="M2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="17.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="2" customWidth="1"/>
-    <col min="8" max="10" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="9" customWidth="1"/>
+    <col min="3" max="4" width="17.88671875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="17.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="33.109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="71.25" customHeight="1">
@@ -9672,36 +9672,36 @@
         <v>10</v>
       </c>
       <c r="L1" s="219" t="s">
+        <v>660</v>
+      </c>
+      <c r="M1" s="226" t="s">
+        <v>661</v>
+      </c>
+      <c r="N1" s="233" t="s">
         <v>662</v>
       </c>
-      <c r="M1" s="226" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="72">
+      <c r="A2" s="44" t="s">
         <v>663</v>
       </c>
-      <c r="N1" s="246" t="s">
+      <c r="B2" s="57" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="72.599999999999994">
-      <c r="A2" s="44" t="s">
+      <c r="C2" s="58" t="s">
         <v>665</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="D2" s="78" t="s">
         <v>666</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="E2" s="197" t="s">
         <v>667</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>668</v>
-      </c>
-      <c r="E2" s="197" t="s">
-        <v>669</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="204" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H2" s="47">
         <v>1</v>
@@ -9715,13 +9715,13 @@
     </row>
     <row r="3" spans="1:14" ht="71.25" customHeight="1">
       <c r="A3" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>671</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>672</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>673</v>
       </c>
       <c r="D3" s="50" t="s">
         <v>16</v>
@@ -9731,7 +9731,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H3" s="52">
         <v>1</v>
@@ -10349,7 +10349,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10363,30 +10363,30 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="32" customWidth="1"/>
     <col min="7" max="7" width="24" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="32" customWidth="1"/>
     <col min="10" max="10" width="16" style="32" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="32" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" style="32" customWidth="1"/>
     <col min="13" max="13" width="27" style="32" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="32"/>
+    <col min="14" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="199" customFormat="1" ht="57.95">
+    <row r="1" spans="1:13" s="199" customFormat="1" ht="57.6">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -10462,7 +10462,7 @@
       <c r="L2" s="107"/>
       <c r="M2" s="107"/>
     </row>
-    <row r="3" spans="1:13" ht="43.5">
+    <row r="3" spans="1:13" ht="43.2">
       <c r="A3" s="125" t="s">
         <v>23</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="216.75">
+    <row r="5" spans="1:13" ht="201.6">
       <c r="A5" s="125" t="s">
         <v>40</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.5">
+    <row r="6" spans="1:13" ht="43.2">
       <c r="A6" s="121" t="s">
         <v>47</v>
       </c>
@@ -10654,109 +10654,109 @@
       <c r="M7" s="129"/>
     </row>
     <row r="8" spans="1:13" ht="29.1" customHeight="1">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="237" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="234" t="s">
+      <c r="C8" s="237" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="236" t="s">
+      <c r="E8" s="239" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="233" t="s">
+      <c r="F8" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="233" t="s">
+      <c r="G8" s="236" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="233" t="s">
+      <c r="H8" s="236" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="237" t="s">
+      <c r="I8" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="237" t="s">
+      <c r="J8" s="235" t="s">
         <v>66</v>
       </c>
       <c r="K8" s="137"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="237"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
     </row>
     <row r="9" spans="1:13" ht="29.1" customHeight="1">
-      <c r="A9" s="234"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="234"/>
+      <c r="A9" s="237"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="237"/>
       <c r="D9" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="236"/>
-      <c r="F9" s="233"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="237"/>
-      <c r="J9" s="237"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="235"/>
       <c r="K9" s="137"/>
-      <c r="L9" s="237"/>
-      <c r="M9" s="237"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="235"/>
     </row>
     <row r="10" spans="1:13" ht="29.1" customHeight="1">
-      <c r="A10" s="234"/>
-      <c r="B10" s="235"/>
-      <c r="C10" s="234"/>
+      <c r="A10" s="237"/>
+      <c r="B10" s="238"/>
+      <c r="C10" s="237"/>
       <c r="D10" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="236"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="235"/>
+      <c r="J10" s="235"/>
       <c r="K10" s="137"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1">
-      <c r="A11" s="234"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="234"/>
+      <c r="L10" s="235"/>
+      <c r="M10" s="235"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A11" s="237"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="237"/>
       <c r="D11" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="236"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="235"/>
+      <c r="J11" s="235"/>
       <c r="K11" s="153"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1">
-      <c r="A12" s="234"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="234"/>
+      <c r="L11" s="235"/>
+      <c r="M11" s="235"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A12" s="237"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="237"/>
       <c r="D12" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="236"/>
-      <c r="F12" s="233"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="233"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="237"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="236"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
       <c r="K12" s="137"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-    </row>
-    <row r="13" spans="1:13" ht="72.75">
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+    </row>
+    <row r="13" spans="1:13" ht="43.2">
       <c r="A13" s="125" t="s">
         <v>71</v>
       </c>
@@ -10828,7 +10828,7 @@
       <c r="L14" s="107"/>
       <c r="M14" s="107"/>
     </row>
-    <row r="15" spans="1:13" ht="57.95">
+    <row r="15" spans="1:13" ht="57.6">
       <c r="A15" s="125" t="s">
         <v>82</v>
       </c>
@@ -10865,7 +10865,7 @@
       <c r="L15" s="129"/>
       <c r="M15" s="129"/>
     </row>
-    <row r="16" spans="1:13" ht="43.5">
+    <row r="16" spans="1:13" ht="43.2">
       <c r="A16" s="121" t="s">
         <v>89</v>
       </c>
@@ -10937,7 +10937,7 @@
       <c r="L17" s="129"/>
       <c r="M17" s="129"/>
     </row>
-    <row r="18" spans="1:13" ht="43.5">
+    <row r="18" spans="1:13" ht="43.2">
       <c r="A18" s="121" t="s">
         <v>101</v>
       </c>
@@ -11013,7 +11013,7 @@
       <c r="L19" s="129"/>
       <c r="M19" s="129"/>
     </row>
-    <row r="20" spans="1:13" ht="43.5">
+    <row r="20" spans="1:13" ht="43.2">
       <c r="A20" s="121" t="s">
         <v>111</v>
       </c>
@@ -11048,7 +11048,7 @@
       <c r="L20" s="107"/>
       <c r="M20" s="107"/>
     </row>
-    <row r="21" spans="1:13" ht="72.599999999999994">
+    <row r="21" spans="1:13" ht="72">
       <c r="A21" s="125" t="s">
         <v>116</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="L22" s="107"/>
       <c r="M22" s="107"/>
     </row>
-    <row r="23" spans="1:13" ht="57.95">
+    <row r="23" spans="1:13" ht="57.6">
       <c r="A23" s="125" t="s">
         <v>127</v>
       </c>
@@ -11155,7 +11155,7 @@
       <c r="L23" s="129"/>
       <c r="M23" s="129"/>
     </row>
-    <row r="24" spans="1:13" ht="29.1">
+    <row r="24" spans="1:13" ht="28.8">
       <c r="A24" s="121" t="s">
         <v>132</v>
       </c>
@@ -11573,17 +11573,17 @@
     <sortCondition ref="A2:A24"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="M8:M12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
     <mergeCell ref="G8:G12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F8:F12"/>
+    <mergeCell ref="M8:M12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F8">
     <cfRule type="cellIs" dxfId="190" priority="16" operator="equal">
@@ -11702,32 +11702,32 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="68.85546875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" style="32" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="32" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="32" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" style="32" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="25.44140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="68.88671875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="32" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="32" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="32" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5546875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="23.44140625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" style="32" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="199" customFormat="1" ht="42">
+    <row r="1" spans="1:14" s="199" customFormat="1" ht="41.4">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="L2" s="107"/>
     </row>
-    <row r="3" spans="1:14" ht="72.75">
+    <row r="3" spans="1:14" ht="72">
       <c r="A3" s="125" t="s">
         <v>156</v>
       </c>
@@ -11847,7 +11847,7 @@
       <c r="M3" s="129"/>
       <c r="N3" s="129"/>
     </row>
-    <row r="4" spans="1:14" s="117" customFormat="1" ht="144.94999999999999">
+    <row r="4" spans="1:14" s="117" customFormat="1" ht="144">
       <c r="A4" s="131" t="s">
         <v>13</v>
       </c>
@@ -11883,7 +11883,7 @@
       </c>
       <c r="L4" s="107"/>
     </row>
-    <row r="5" spans="1:14" ht="57.75">
+    <row r="5" spans="1:14" ht="57.6">
       <c r="A5" s="125" t="s">
         <v>164</v>
       </c>
@@ -11921,7 +11921,7 @@
       <c r="M5" s="129"/>
       <c r="N5" s="129"/>
     </row>
-    <row r="6" spans="1:14" ht="29.1">
+    <row r="6" spans="1:14" ht="28.8">
       <c r="A6" s="121" t="s">
         <v>170</v>
       </c>
@@ -11957,7 +11957,7 @@
       </c>
       <c r="L6" s="107"/>
     </row>
-    <row r="7" spans="1:14" ht="43.5">
+    <row r="7" spans="1:14" ht="43.2">
       <c r="A7" s="125" t="s">
         <v>176</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="201.75">
+    <row r="9" spans="1:14" ht="187.2">
       <c r="A9" s="125" t="s">
         <v>40</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="57.75">
+    <row r="10" spans="1:14" ht="57.6">
       <c r="A10" s="121" t="s">
         <v>54</v>
       </c>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="L10" s="107"/>
     </row>
-    <row r="11" spans="1:14" ht="15">
+    <row r="11" spans="1:14">
       <c r="A11" s="125" t="s">
         <v>185</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="29.1">
+    <row r="12" spans="1:14" ht="28.8">
       <c r="A12" s="121" t="s">
         <v>190</v>
       </c>
@@ -12235,105 +12235,105 @@
       <c r="M13" s="129"/>
       <c r="N13" s="129"/>
     </row>
-    <row r="14" spans="1:14" ht="43.5">
-      <c r="A14" s="234" t="s">
+    <row r="14" spans="1:14" ht="43.2">
+      <c r="A14" s="237" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="238" t="s">
+      <c r="B14" s="241" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="234" t="s">
+      <c r="C14" s="237" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="236" t="s">
+      <c r="E14" s="239" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="233" t="s">
+      <c r="F14" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="233" t="s">
+      <c r="G14" s="236" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="233" t="s">
+      <c r="H14" s="236" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="237" t="s">
+      <c r="I14" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="237" t="s">
+      <c r="J14" s="235" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="239"/>
-      <c r="L14" s="237"/>
-    </row>
-    <row r="15" spans="1:14" ht="43.5">
-      <c r="A15" s="234"/>
-      <c r="B15" s="238"/>
-      <c r="C15" s="234"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="235"/>
+    </row>
+    <row r="15" spans="1:14" ht="43.2">
+      <c r="A15" s="237"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="237"/>
       <c r="D15" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="236"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="237"/>
-    </row>
-    <row r="16" spans="1:14" ht="29.1">
-      <c r="A16" s="234"/>
-      <c r="B16" s="238"/>
-      <c r="C16" s="234"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="236"/>
+      <c r="G15" s="236"/>
+      <c r="H15" s="236"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="235"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.8">
+      <c r="A16" s="237"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="237"/>
       <c r="D16" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="236"/>
-      <c r="F16" s="233"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="237"/>
+      <c r="E16" s="239"/>
+      <c r="F16" s="236"/>
+      <c r="G16" s="236"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="235"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="234"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="234"/>
+      <c r="A17" s="237"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="237"/>
       <c r="D17" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="236"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="237"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="237"/>
+      <c r="E17" s="239"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="236"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="235"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="234"/>
-      <c r="B18" s="238"/>
-      <c r="C18" s="234"/>
+      <c r="A18" s="237"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="237"/>
       <c r="D18" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="236"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="237"/>
-      <c r="J18" s="237"/>
-      <c r="K18" s="239"/>
-      <c r="L18" s="237"/>
-    </row>
-    <row r="19" spans="1:14" ht="29.25">
+      <c r="E18" s="239"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="240"/>
+      <c r="L18" s="235"/>
+    </row>
+    <row r="19" spans="1:14" ht="28.8">
       <c r="A19" s="125" t="s">
         <v>202</v>
       </c>
@@ -12373,7 +12373,7 @@
       <c r="M19" s="129"/>
       <c r="N19" s="129"/>
     </row>
-    <row r="20" spans="1:14" ht="87">
+    <row r="20" spans="1:14" ht="86.4">
       <c r="A20" s="121" t="s">
         <v>208</v>
       </c>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="L20" s="107"/>
     </row>
-    <row r="21" spans="1:14" ht="101.25">
+    <row r="21" spans="1:14" ht="100.8">
       <c r="A21" s="125" t="s">
         <v>213</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="43.5">
+    <row r="23" spans="1:14" ht="43.2">
       <c r="A23" s="125" t="s">
         <v>224</v>
       </c>
@@ -12521,7 +12521,7 @@
       <c r="M23" s="129"/>
       <c r="N23" s="129"/>
     </row>
-    <row r="24" spans="1:14" ht="43.5">
+    <row r="24" spans="1:14" ht="43.2">
       <c r="A24" s="121" t="s">
         <v>230</v>
       </c>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="L24" s="107"/>
     </row>
-    <row r="25" spans="1:14" ht="57.75">
+    <row r="25" spans="1:14" ht="43.2">
       <c r="A25" s="125" t="s">
         <v>82</v>
       </c>
@@ -12595,7 +12595,7 @@
       <c r="M25" s="129"/>
       <c r="N25" s="129"/>
     </row>
-    <row r="26" spans="1:14" ht="116.1">
+    <row r="26" spans="1:14" ht="115.2">
       <c r="A26" s="121" t="s">
         <v>236</v>
       </c>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="L26" s="107"/>
     </row>
-    <row r="27" spans="1:14" ht="43.5">
+    <row r="27" spans="1:14" ht="43.2">
       <c r="A27" s="125" t="s">
         <v>243</v>
       </c>
@@ -12669,7 +12669,7 @@
       <c r="M27" s="129"/>
       <c r="N27" s="129"/>
     </row>
-    <row r="28" spans="1:14" ht="43.5">
+    <row r="28" spans="1:14" ht="28.8">
       <c r="A28" s="121" t="s">
         <v>249</v>
       </c>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="L28" s="107"/>
     </row>
-    <row r="29" spans="1:14" ht="43.5">
+    <row r="29" spans="1:14" ht="43.2">
       <c r="A29" s="125" t="s">
         <v>96</v>
       </c>
@@ -12743,7 +12743,7 @@
       <c r="M29" s="129"/>
       <c r="N29" s="129"/>
     </row>
-    <row r="30" spans="1:14" ht="29.1">
+    <row r="30" spans="1:14" ht="28.8">
       <c r="A30" s="121" t="s">
         <v>255</v>
       </c>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="L30" s="107"/>
     </row>
-    <row r="31" spans="1:14" ht="29.25">
+    <row r="31" spans="1:14" ht="28.8">
       <c r="A31" s="125" t="s">
         <v>261</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="M31" s="129"/>
       <c r="N31" s="129"/>
     </row>
-    <row r="32" spans="1:14" ht="57.95">
+    <row r="32" spans="1:14" ht="57.6">
       <c r="A32" s="121" t="s">
         <v>266</v>
       </c>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="L32" s="107"/>
     </row>
-    <row r="33" spans="1:14" ht="57.75">
+    <row r="33" spans="1:14" ht="57.6">
       <c r="A33" s="125" t="s">
         <v>272</v>
       </c>
@@ -12891,7 +12891,7 @@
       <c r="M33" s="129"/>
       <c r="N33" s="129"/>
     </row>
-    <row r="34" spans="1:14" ht="43.5">
+    <row r="34" spans="1:14" ht="43.2">
       <c r="A34" s="121" t="s">
         <v>279</v>
       </c>
@@ -12927,7 +12927,7 @@
       </c>
       <c r="L34" s="107"/>
     </row>
-    <row r="35" spans="1:14" ht="115.5">
+    <row r="35" spans="1:14" ht="115.2">
       <c r="A35" s="125" t="s">
         <v>101</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="43.5">
+    <row r="36" spans="1:14" ht="43.2">
       <c r="A36" s="121" t="s">
         <v>285</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="57.75">
+    <row r="38" spans="1:14" ht="57.6">
       <c r="A38" s="121" t="s">
         <v>297</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="43.5">
+    <row r="39" spans="1:14" ht="43.2">
       <c r="A39" s="125" t="s">
         <v>303</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="29.1">
+    <row r="40" spans="1:14" ht="28.8">
       <c r="A40" s="121" t="s">
         <v>107</v>
       </c>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="L40" s="107"/>
     </row>
-    <row r="41" spans="1:14" ht="29.25">
+    <row r="41" spans="1:14" ht="28.8">
       <c r="A41" s="125" t="s">
         <v>310</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="72.75">
+    <row r="42" spans="1:14" ht="72">
       <c r="A42" s="121" t="s">
         <v>315</v>
       </c>
@@ -13255,7 +13255,7 @@
       <c r="M42" s="107"/>
       <c r="N42" s="107"/>
     </row>
-    <row r="43" spans="1:14" ht="29.25">
+    <row r="43" spans="1:14" ht="28.8">
       <c r="A43" s="125" t="s">
         <v>320</v>
       </c>
@@ -13295,7 +13295,7 @@
       <c r="M43" s="129"/>
       <c r="N43" s="129"/>
     </row>
-    <row r="44" spans="1:14" ht="57.75">
+    <row r="44" spans="1:14" ht="57.6">
       <c r="A44" s="121" t="s">
         <v>325</v>
       </c>
@@ -13333,7 +13333,7 @@
       <c r="M44" s="107"/>
       <c r="N44" s="107"/>
     </row>
-    <row r="45" spans="1:14" ht="43.5">
+    <row r="45" spans="1:14" ht="28.8">
       <c r="A45" s="125" t="s">
         <v>122</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="57.75">
+    <row r="46" spans="1:14" ht="57.6">
       <c r="A46" s="121" t="s">
         <v>331</v>
       </c>
@@ -13453,7 +13453,7 @@
       <c r="M47" s="129"/>
       <c r="N47" s="129"/>
     </row>
-    <row r="48" spans="1:14" ht="29.25">
+    <row r="48" spans="1:14" ht="28.8">
       <c r="A48" s="121" t="s">
         <v>132</v>
       </c>
@@ -13491,7 +13491,7 @@
       <c r="M48" s="107"/>
       <c r="N48" s="107"/>
     </row>
-    <row r="49" spans="1:14" ht="57.75">
+    <row r="49" spans="1:14" ht="57.6">
       <c r="A49" s="125" t="s">
         <v>341</v>
       </c>
@@ -13529,7 +13529,7 @@
       <c r="M49" s="129"/>
       <c r="N49" s="129"/>
     </row>
-    <row r="50" spans="1:14" ht="29.25">
+    <row r="50" spans="1:14" ht="28.8">
       <c r="A50" s="121" t="s">
         <v>346</v>
       </c>
@@ -13567,7 +13567,7 @@
       <c r="M50" s="107"/>
       <c r="N50" s="107"/>
     </row>
-    <row r="51" spans="1:14" ht="29.25">
+    <row r="51" spans="1:14" ht="28.8">
       <c r="A51" s="125" t="s">
         <v>350</v>
       </c>
@@ -13659,17 +13659,17 @@
     <sortCondition ref="A2:A53"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="E14:E18"/>
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="I14:I18"/>
     <mergeCell ref="J14:J18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="E14:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F14 F19:F53">
     <cfRule type="cellIs" dxfId="171" priority="8" operator="equal">
@@ -13780,34 +13780,34 @@
   </sheetPr>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="178" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="178" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="178" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="175" customWidth="1"/>
-    <col min="5" max="5" width="65.85546875" style="178" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="136" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="136" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="182" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="136" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="178" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="175" customWidth="1"/>
+    <col min="5" max="5" width="65.88671875" style="178" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="136" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="136" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="182" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="136" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="136" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" style="156" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="40.42578125" style="136" customWidth="1"/>
-    <col min="13" max="13" width="39.140625" style="136" customWidth="1"/>
-    <col min="14" max="19" width="28.85546875" style="136" customWidth="1"/>
-    <col min="20" max="20" width="34.5703125" style="136" customWidth="1"/>
-    <col min="21" max="21" width="35.5703125" style="136" customWidth="1"/>
-    <col min="22" max="22" width="36.5703125" style="136" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="136"/>
+    <col min="11" max="11" width="39.44140625" style="156" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="40.44140625" style="136" customWidth="1"/>
+    <col min="13" max="13" width="39.109375" style="136" customWidth="1"/>
+    <col min="14" max="19" width="28.88671875" style="136" customWidth="1"/>
+    <col min="20" max="20" width="34.5546875" style="136" customWidth="1"/>
+    <col min="21" max="21" width="35.5546875" style="136" customWidth="1"/>
+    <col min="22" max="22" width="36.5546875" style="136" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="136"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="201" customFormat="1" ht="87">
+    <row r="1" spans="1:22" s="201" customFormat="1" ht="86.4">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -13871,11 +13871,11 @@
       <c r="U1" s="224" t="s">
         <v>367</v>
       </c>
-      <c r="V1" s="246" t="s">
+      <c r="V1" s="233" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="29.25">
+    <row r="2" spans="1:22" ht="28.8">
       <c r="A2" s="64" t="s">
         <v>369</v>
       </c>
@@ -13907,7 +13907,7 @@
       <c r="K2" s="161"/>
       <c r="L2" s="107"/>
     </row>
-    <row r="3" spans="1:22" ht="115.5">
+    <row r="3" spans="1:22" ht="115.2">
       <c r="A3" s="68" t="s">
         <v>372</v>
       </c>
@@ -13921,13 +13921,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="184" t="s">
-        <v>375</v>
+        <v>673</v>
       </c>
       <c r="F3" s="163" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="163" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" s="163">
         <v>1</v>
@@ -13939,7 +13939,7 @@
         <v>66</v>
       </c>
       <c r="K3" s="136" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L3" s="129"/>
       <c r="M3" s="129"/>
@@ -13952,7 +13952,7 @@
       <c r="T3" s="129"/>
       <c r="U3" s="129"/>
     </row>
-    <row r="4" spans="1:22" ht="101.25">
+    <row r="4" spans="1:22" ht="129.6">
       <c r="A4" s="64" t="s">
         <v>213</v>
       </c>
@@ -13963,10 +13963,10 @@
         <v>215</v>
       </c>
       <c r="D4" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="158" t="s">
         <v>378</v>
-      </c>
-      <c r="E4" s="158" t="s">
-        <v>379</v>
       </c>
       <c r="F4" s="159" t="s">
         <v>35</v>
@@ -13981,28 +13981,28 @@
         <v>28</v>
       </c>
       <c r="J4" s="160" t="s">
+        <v>379</v>
+      </c>
+      <c r="K4" s="136" t="s">
         <v>380</v>
       </c>
-      <c r="K4" s="136" t="s">
+      <c r="L4" s="107"/>
+    </row>
+    <row r="5" spans="1:22" ht="43.2">
+      <c r="A5" s="165" t="s">
         <v>381</v>
       </c>
-      <c r="L4" s="107"/>
-    </row>
-    <row r="5" spans="1:22" ht="57.75">
-      <c r="A5" s="165" t="s">
+      <c r="B5" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="C5" s="165" t="s">
         <v>383</v>
-      </c>
-      <c r="C5" s="165" t="s">
-        <v>384</v>
       </c>
       <c r="D5" s="126" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F5" s="166" t="s">
         <v>35</v>
@@ -14020,7 +14020,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="136" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L5" s="129"/>
       <c r="M5" s="129"/>
@@ -14033,21 +14033,21 @@
       <c r="T5" s="129"/>
       <c r="U5" s="129"/>
     </row>
-    <row r="6" spans="1:22" ht="72.75">
+    <row r="6" spans="1:22" ht="72">
       <c r="A6" s="168" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="151" t="s">
         <v>387</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="C6" s="168" t="s">
         <v>388</v>
-      </c>
-      <c r="C6" s="168" t="s">
-        <v>389</v>
       </c>
       <c r="D6" s="169" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="151" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F6" s="133" t="s">
         <v>17</v>
@@ -14067,21 +14067,21 @@
       <c r="K6" s="161"/>
       <c r="L6" s="107"/>
     </row>
-    <row r="7" spans="1:22" ht="115.5">
+    <row r="7" spans="1:22" ht="115.2">
       <c r="A7" s="125" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="C7" s="125" t="s">
         <v>392</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="D7" s="171" t="s">
         <v>393</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="E7" s="81" t="s">
         <v>394</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>395</v>
       </c>
       <c r="F7" s="127" t="s">
         <v>17</v>
@@ -14110,7 +14110,7 @@
       <c r="T7" s="129"/>
       <c r="U7" s="129"/>
     </row>
-    <row r="8" spans="1:22" ht="29.25">
+    <row r="8" spans="1:22" ht="28.8">
       <c r="A8" s="64" t="s">
         <v>341</v>
       </c>
@@ -14121,10 +14121,10 @@
         <v>343</v>
       </c>
       <c r="D8" s="143" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E8" s="135" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F8" s="159" t="s">
         <v>17</v>
@@ -14142,13 +14142,13 @@
         <v>29</v>
       </c>
       <c r="K8" s="136" t="s">
+        <v>396</v>
+      </c>
+      <c r="L8" s="107"/>
+    </row>
+    <row r="9" spans="1:22" ht="43.2">
+      <c r="A9" s="165" t="s">
         <v>397</v>
-      </c>
-      <c r="L8" s="107"/>
-    </row>
-    <row r="9" spans="1:22" ht="43.5">
-      <c r="A9" s="165" t="s">
-        <v>398</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>77</v>
@@ -14160,7 +14160,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="173" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F9" s="166" t="s">
         <v>35</v>
@@ -14178,7 +14178,7 @@
         <v>66</v>
       </c>
       <c r="K9" s="136" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L9" s="129"/>
       <c r="M9" s="129"/>
@@ -14191,7 +14191,7 @@
       <c r="T9" s="129"/>
       <c r="U9" s="129"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" ht="14.4">
       <c r="A10" s="174"/>
       <c r="B10" s="175"/>
       <c r="C10" s="174"/>
@@ -14204,7 +14204,7 @@
       <c r="J10" s="156"/>
       <c r="K10" s="98"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" ht="14.4">
       <c r="A11" s="174"/>
       <c r="B11" s="175"/>
       <c r="D11" s="176"/>
@@ -14216,7 +14216,7 @@
       <c r="J11" s="156"/>
       <c r="K11" s="99"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" ht="14.4">
       <c r="A12" s="174"/>
       <c r="B12" s="175"/>
       <c r="C12" s="174"/>
@@ -14229,7 +14229,7 @@
       <c r="J12" s="156"/>
       <c r="K12" s="98"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" ht="14.4">
       <c r="A13" s="174"/>
       <c r="B13" s="175"/>
       <c r="C13" s="174"/>
@@ -14242,7 +14242,7 @@
       <c r="J13" s="156"/>
       <c r="K13" s="98"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" ht="14.4">
       <c r="A14" s="174"/>
       <c r="B14" s="175"/>
       <c r="C14" s="174"/>
@@ -14255,7 +14255,7 @@
       <c r="J14" s="156"/>
       <c r="K14" s="98"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" ht="14.4">
       <c r="A15" s="174"/>
       <c r="B15" s="175"/>
       <c r="C15" s="179"/>
@@ -14268,7 +14268,7 @@
       <c r="J15" s="156"/>
       <c r="K15" s="98"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" ht="14.4">
       <c r="A16" s="174"/>
       <c r="B16" s="175"/>
       <c r="C16" s="174"/>
@@ -14281,7 +14281,7 @@
       <c r="J16" s="156"/>
       <c r="K16" s="98"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="14.4">
       <c r="A17" s="174"/>
       <c r="B17" s="175"/>
       <c r="D17" s="176"/>
@@ -14293,7 +14293,7 @@
       <c r="J17" s="156"/>
       <c r="K17" s="98"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="14.4">
       <c r="A18" s="174"/>
       <c r="B18" s="175"/>
       <c r="C18" s="174"/>
@@ -14306,7 +14306,7 @@
       <c r="J18" s="156"/>
       <c r="K18" s="98"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="14.4">
       <c r="A19" s="174"/>
       <c r="B19" s="175"/>
       <c r="C19" s="174"/>
@@ -14319,7 +14319,7 @@
       <c r="J19" s="156"/>
       <c r="K19" s="101"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="14.4">
       <c r="A20" s="174"/>
       <c r="B20" s="175"/>
       <c r="C20" s="174"/>
@@ -14332,7 +14332,7 @@
       <c r="J20" s="156"/>
       <c r="K20" s="99"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="14.4">
       <c r="A21" s="174"/>
       <c r="B21" s="175"/>
       <c r="C21" s="179"/>
@@ -14345,7 +14345,7 @@
       <c r="J21" s="156"/>
       <c r="K21" s="98"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="14.4">
       <c r="A22" s="174"/>
       <c r="B22" s="175"/>
       <c r="C22" s="174"/>
@@ -14358,7 +14358,7 @@
       <c r="J22" s="156"/>
       <c r="K22" s="98"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="14.4">
       <c r="A23" s="174"/>
       <c r="B23" s="175"/>
       <c r="D23" s="122"/>
@@ -14370,7 +14370,7 @@
       <c r="J23" s="156"/>
       <c r="K23" s="98"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="14.4">
       <c r="A24" s="174"/>
       <c r="B24" s="175"/>
       <c r="C24" s="174"/>
@@ -14383,7 +14383,7 @@
       <c r="J24" s="156"/>
       <c r="K24" s="100"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="14.4">
       <c r="A25" s="174"/>
       <c r="B25" s="175"/>
       <c r="C25" s="174"/>
@@ -14396,7 +14396,7 @@
       <c r="J25" s="156"/>
       <c r="K25" s="98"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="14.4">
       <c r="A26" s="174"/>
       <c r="B26" s="175"/>
       <c r="C26" s="174"/>
@@ -14409,7 +14409,7 @@
       <c r="J26" s="156"/>
       <c r="K26" s="100"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="14.4">
       <c r="A27" s="174"/>
       <c r="B27" s="175"/>
       <c r="C27" s="179"/>
@@ -14422,7 +14422,7 @@
       <c r="J27" s="156"/>
       <c r="K27" s="98"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="14.4">
       <c r="A28" s="174"/>
       <c r="B28" s="175"/>
       <c r="C28" s="174"/>
@@ -14435,7 +14435,7 @@
       <c r="J28" s="156"/>
       <c r="K28" s="98"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="14.4">
       <c r="A29" s="174"/>
       <c r="B29" s="175"/>
       <c r="D29" s="176"/>
@@ -14447,7 +14447,7 @@
       <c r="J29" s="156"/>
       <c r="K29" s="98"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="14.4">
       <c r="A30" s="174"/>
       <c r="B30" s="175"/>
       <c r="C30" s="174"/>
@@ -14460,7 +14460,7 @@
       <c r="J30" s="156"/>
       <c r="K30" s="98"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="14.4">
       <c r="A31" s="174"/>
       <c r="B31" s="175"/>
       <c r="C31" s="174"/>
@@ -14473,7 +14473,7 @@
       <c r="J31" s="156"/>
       <c r="K31" s="98"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="14.4">
       <c r="A32" s="174"/>
       <c r="B32" s="175"/>
       <c r="C32" s="174"/>
@@ -14486,7 +14486,7 @@
       <c r="J32" s="156"/>
       <c r="K32" s="98"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="14.4">
       <c r="A33" s="174"/>
       <c r="B33" s="175"/>
       <c r="C33" s="179"/>
@@ -14499,7 +14499,7 @@
       <c r="J33" s="156"/>
       <c r="K33" s="98"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="14.4">
       <c r="A34" s="174"/>
       <c r="B34" s="175"/>
       <c r="C34" s="174"/>
@@ -14512,7 +14512,7 @@
       <c r="J34" s="156"/>
       <c r="K34" s="98"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="14.4">
       <c r="A35" s="174"/>
       <c r="B35" s="175"/>
       <c r="D35" s="176"/>
@@ -14524,7 +14524,7 @@
       <c r="J35" s="156"/>
       <c r="K35" s="98"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="14.4">
       <c r="A36" s="174"/>
       <c r="B36" s="175"/>
       <c r="C36" s="174"/>
@@ -14537,7 +14537,7 @@
       <c r="J36" s="156"/>
       <c r="K36" s="98"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="14.4">
       <c r="A37" s="174"/>
       <c r="B37" s="175"/>
       <c r="C37" s="174"/>
@@ -14550,7 +14550,7 @@
       <c r="J37" s="156"/>
       <c r="K37" s="98"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="14.4">
       <c r="A38" s="174"/>
       <c r="B38" s="175"/>
       <c r="C38" s="174"/>
@@ -14563,7 +14563,7 @@
       <c r="J38" s="156"/>
       <c r="K38" s="98"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="14.4">
       <c r="A39" s="174"/>
       <c r="B39" s="175"/>
       <c r="C39" s="179"/>
@@ -14576,7 +14576,7 @@
       <c r="J39" s="156"/>
       <c r="K39" s="98"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="14.4">
       <c r="A40" s="174"/>
       <c r="B40" s="175"/>
       <c r="C40" s="174"/>
@@ -14589,7 +14589,7 @@
       <c r="J40" s="156"/>
       <c r="K40" s="98"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="14.4">
       <c r="A41" s="174"/>
       <c r="B41" s="175"/>
       <c r="C41" s="174"/>
@@ -14602,7 +14602,7 @@
       <c r="J41" s="156"/>
       <c r="K41" s="98"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="14.4">
       <c r="A42" s="174"/>
       <c r="B42" s="175"/>
       <c r="C42" s="174"/>
@@ -14615,7 +14615,7 @@
       <c r="J42" s="156"/>
       <c r="K42" s="98"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="14.4">
       <c r="A43" s="174"/>
       <c r="B43" s="175"/>
       <c r="C43" s="179"/>
@@ -14628,7 +14628,7 @@
       <c r="J43" s="156"/>
       <c r="K43" s="98"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="14.4">
       <c r="A44" s="174"/>
       <c r="B44" s="175"/>
       <c r="C44" s="174"/>
@@ -14641,7 +14641,7 @@
       <c r="J44" s="156"/>
       <c r="K44" s="98"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="14.4">
       <c r="A45" s="174"/>
       <c r="B45" s="175"/>
       <c r="D45" s="176"/>
@@ -14653,7 +14653,7 @@
       <c r="J45" s="156"/>
       <c r="K45" s="98"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="14.4">
       <c r="A46" s="174"/>
       <c r="B46" s="175"/>
       <c r="C46" s="174"/>
@@ -14666,7 +14666,7 @@
       <c r="J46" s="156"/>
       <c r="K46" s="98"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="14.4">
       <c r="A47" s="174"/>
       <c r="B47" s="175"/>
       <c r="C47" s="174"/>
@@ -14679,7 +14679,7 @@
       <c r="J47" s="156"/>
       <c r="K47" s="98"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="14.4">
       <c r="A48" s="174"/>
       <c r="B48" s="175"/>
       <c r="C48" s="174"/>
@@ -14692,7 +14692,7 @@
       <c r="J48" s="156"/>
       <c r="K48" s="98"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="14.4">
       <c r="A49" s="174"/>
       <c r="B49" s="175"/>
       <c r="C49" s="179"/>
@@ -14705,7 +14705,7 @@
       <c r="J49" s="156"/>
       <c r="K49" s="98"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="14.4">
       <c r="A50" s="174"/>
       <c r="B50" s="175"/>
       <c r="C50" s="174"/>
@@ -14718,7 +14718,7 @@
       <c r="J50" s="156"/>
       <c r="K50" s="98"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="14.4">
       <c r="A51" s="174"/>
       <c r="B51" s="175"/>
       <c r="C51" s="174"/>
@@ -14731,7 +14731,7 @@
       <c r="J51" s="156"/>
       <c r="K51" s="98"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" ht="14.4">
       <c r="A52" s="174"/>
       <c r="B52" s="175"/>
       <c r="C52" s="174"/>
@@ -14744,7 +14744,7 @@
       <c r="J52" s="156"/>
       <c r="K52" s="98"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="14.4">
       <c r="A53" s="174"/>
       <c r="B53" s="175"/>
       <c r="D53" s="176"/>
@@ -14756,7 +14756,7 @@
       <c r="J53" s="156"/>
       <c r="K53" s="98"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" ht="14.4">
       <c r="A54" s="174"/>
       <c r="B54" s="175"/>
       <c r="C54" s="174"/>
@@ -14769,7 +14769,7 @@
       <c r="J54" s="156"/>
       <c r="K54" s="98"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" ht="14.4">
       <c r="A55" s="174"/>
       <c r="B55" s="175"/>
       <c r="C55" s="174"/>
@@ -14782,10 +14782,10 @@
       <c r="J55" s="156"/>
       <c r="K55" s="98"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" ht="14.4">
       <c r="K56" s="98"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="14.4">
       <c r="K57" s="99"/>
     </row>
   </sheetData>
@@ -14868,33 +14868,33 @@
   </sheetPr>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="84" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="87" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="84" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="84" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="87" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="84" customWidth="1"/>
     <col min="10" max="10" width="16" style="84" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="31.140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" style="84" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.42578125" style="84" customWidth="1"/>
-    <col min="17" max="17" width="33.5703125" style="84" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="84"/>
+    <col min="11" max="11" width="39.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="31.109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.33203125" style="84" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.44140625" style="84" customWidth="1"/>
+    <col min="17" max="17" width="33.5546875" style="84" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="201" customFormat="1" ht="87">
+    <row r="1" spans="1:17" s="201" customFormat="1" ht="86.4">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -14929,45 +14929,45 @@
         <v>10</v>
       </c>
       <c r="L1" s="225" t="s">
+        <v>400</v>
+      </c>
+      <c r="M1" s="108" t="s">
         <v>401</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="N1" s="223" t="s">
         <v>402</v>
       </c>
-      <c r="N1" s="223" t="s">
+      <c r="O1" s="224" t="s">
         <v>403</v>
       </c>
-      <c r="O1" s="224" t="s">
+      <c r="P1" s="232" t="s">
         <v>404</v>
       </c>
-      <c r="P1" s="232" t="s">
+      <c r="Q1" s="233" t="s">
         <v>405</v>
-      </c>
-      <c r="Q1" s="246" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="64.349999999999994" customHeight="1">
       <c r="A2" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C2" s="172" t="s">
         <v>408</v>
-      </c>
-      <c r="C2" s="172" t="s">
-        <v>409</v>
       </c>
       <c r="D2" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F2" s="159" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="159" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H2" s="159" t="s">
         <v>19</v>
@@ -14979,31 +14979,31 @@
         <v>29</v>
       </c>
       <c r="K2" s="156" t="s">
+        <v>410</v>
+      </c>
+      <c r="L2" s="136"/>
+    </row>
+    <row r="3" spans="1:17" ht="129.6">
+      <c r="A3" s="68" t="s">
         <v>411</v>
       </c>
-      <c r="L2" s="136"/>
-    </row>
-    <row r="3" spans="1:17" ht="144.75">
-      <c r="A3" s="68" t="s">
+      <c r="B3" s="61" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="C3" s="68" t="s">
         <v>413</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>414</v>
       </c>
       <c r="D3" s="183" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="184" t="s">
-        <v>415</v>
+        <v>674</v>
       </c>
       <c r="F3" s="163" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="163" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" s="163">
         <v>1</v>
@@ -15015,7 +15015,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="156" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L3" s="75"/>
       <c r="M3" s="61"/>
@@ -15023,27 +15023,27 @@
       <c r="O3" s="61"/>
       <c r="P3" s="61"/>
     </row>
-    <row r="4" spans="1:17" ht="29.25">
+    <row r="4" spans="1:17" ht="28.8">
       <c r="A4" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>417</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>419</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F4" s="159" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="159" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H4" s="159">
         <v>1</v>
@@ -15055,11 +15055,11 @@
         <v>29</v>
       </c>
       <c r="K4" s="156" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L4" s="136"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="14.4">
       <c r="A5" s="23"/>
       <c r="B5" s="8"/>
       <c r="C5" s="23"/>
@@ -15073,7 +15073,7 @@
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="14.4">
       <c r="A6" s="23"/>
       <c r="B6" s="8"/>
       <c r="C6" s="23"/>
@@ -15087,7 +15087,7 @@
       <c r="K6" s="84"/>
       <c r="L6" s="84"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="14.4">
       <c r="A7" s="23"/>
       <c r="B7" s="8"/>
       <c r="C7" s="29"/>
@@ -15101,7 +15101,7 @@
       <c r="K7" s="84"/>
       <c r="L7" s="84"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" ht="14.4">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="23"/>
@@ -15115,7 +15115,7 @@
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="14.4">
       <c r="A9" s="23"/>
       <c r="B9" s="8"/>
       <c r="D9" s="23"/>
@@ -15128,7 +15128,7 @@
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="14.4">
       <c r="A10" s="23"/>
       <c r="B10" s="8"/>
       <c r="C10" s="23"/>
@@ -15142,7 +15142,7 @@
       <c r="K10" s="98"/>
       <c r="L10" s="98"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" ht="14.4">
       <c r="A11" s="23"/>
       <c r="B11" s="8"/>
       <c r="C11" s="23"/>
@@ -15156,7 +15156,7 @@
       <c r="K11" s="99"/>
       <c r="L11" s="99"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" ht="14.4">
       <c r="A12" s="23"/>
       <c r="B12" s="8"/>
       <c r="C12" s="23"/>
@@ -15170,7 +15170,7 @@
       <c r="K12" s="98"/>
       <c r="L12" s="98"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="14.4">
       <c r="A13" s="23"/>
       <c r="B13" s="8"/>
       <c r="C13" s="29"/>
@@ -15184,7 +15184,7 @@
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" ht="14.4">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="23"/>
@@ -15198,7 +15198,7 @@
       <c r="K14" s="98"/>
       <c r="L14" s="98"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="14.4">
       <c r="A15" s="23"/>
       <c r="B15" s="8"/>
       <c r="D15" s="23"/>
@@ -15211,7 +15211,7 @@
       <c r="K15" s="98"/>
       <c r="L15" s="98"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" ht="14.4">
       <c r="A16" s="23"/>
       <c r="B16" s="8"/>
       <c r="C16" s="23"/>
@@ -15225,7 +15225,7 @@
       <c r="K16" s="98"/>
       <c r="L16" s="98"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="14.4">
       <c r="A17" s="23"/>
       <c r="B17" s="8"/>
       <c r="C17" s="23"/>
@@ -15239,7 +15239,7 @@
       <c r="K17" s="98"/>
       <c r="L17" s="98"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="14.4">
       <c r="A18" s="23"/>
       <c r="B18" s="8"/>
       <c r="C18" s="23"/>
@@ -15253,7 +15253,7 @@
       <c r="K18" s="98"/>
       <c r="L18" s="98"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="14.4">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="29"/>
@@ -15267,7 +15267,7 @@
       <c r="K19" s="101"/>
       <c r="L19" s="101"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" ht="14.4">
       <c r="A20" s="23"/>
       <c r="B20" s="8"/>
       <c r="C20" s="23"/>
@@ -15281,7 +15281,7 @@
       <c r="K20" s="99"/>
       <c r="L20" s="99"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="14.4">
       <c r="A21" s="23"/>
       <c r="B21" s="8"/>
       <c r="D21" s="30"/>
@@ -15294,7 +15294,7 @@
       <c r="K21" s="98"/>
       <c r="L21" s="98"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" ht="14.4">
       <c r="A22" s="23"/>
       <c r="B22" s="8"/>
       <c r="C22" s="23"/>
@@ -15308,7 +15308,7 @@
       <c r="K22" s="98"/>
       <c r="L22" s="98"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="14.4">
       <c r="A23" s="23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="23"/>
@@ -15322,7 +15322,7 @@
       <c r="K23" s="98"/>
       <c r="L23" s="98"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="14.4">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="23"/>
@@ -15336,7 +15336,7 @@
       <c r="K24" s="100"/>
       <c r="L24" s="100"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" ht="14.4">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="29"/>
@@ -15350,7 +15350,7 @@
       <c r="K25" s="98"/>
       <c r="L25" s="98"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" ht="14.4">
       <c r="A26" s="23"/>
       <c r="B26" s="8"/>
       <c r="C26" s="23"/>
@@ -15364,7 +15364,7 @@
       <c r="K26" s="100"/>
       <c r="L26" s="100"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" ht="14.4">
       <c r="A27" s="23"/>
       <c r="B27" s="8"/>
       <c r="D27" s="23"/>
@@ -15377,7 +15377,7 @@
       <c r="K27" s="98"/>
       <c r="L27" s="98"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" ht="14.4">
       <c r="A28" s="23"/>
       <c r="B28" s="8"/>
       <c r="C28" s="23"/>
@@ -15391,7 +15391,7 @@
       <c r="K28" s="98"/>
       <c r="L28" s="98"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" ht="14.4">
       <c r="A29" s="23"/>
       <c r="B29" s="8"/>
       <c r="C29" s="23"/>
@@ -15405,7 +15405,7 @@
       <c r="K29" s="98"/>
       <c r="L29" s="98"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" ht="14.4">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="23"/>
@@ -15419,7 +15419,7 @@
       <c r="K30" s="98"/>
       <c r="L30" s="98"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="14.4">
       <c r="A31" s="23"/>
       <c r="B31" s="8"/>
       <c r="C31" s="29"/>
@@ -15433,7 +15433,7 @@
       <c r="K31" s="98"/>
       <c r="L31" s="98"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" ht="14.4">
       <c r="A32" s="23"/>
       <c r="B32" s="8"/>
       <c r="C32" s="23"/>
@@ -15447,7 +15447,7 @@
       <c r="K32" s="98"/>
       <c r="L32" s="98"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="14.4">
       <c r="A33" s="23"/>
       <c r="B33" s="8"/>
       <c r="D33" s="23"/>
@@ -15460,7 +15460,7 @@
       <c r="K33" s="102"/>
       <c r="L33" s="102"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" ht="14.4">
       <c r="A34" s="23"/>
       <c r="B34" s="8"/>
       <c r="C34" s="23"/>
@@ -15474,7 +15474,7 @@
       <c r="K34" s="98"/>
       <c r="L34" s="98"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" ht="14.4">
       <c r="A35" s="23"/>
       <c r="B35" s="8"/>
       <c r="C35" s="23"/>
@@ -15488,7 +15488,7 @@
       <c r="K35" s="98"/>
       <c r="L35" s="98"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" ht="14.4">
       <c r="A36" s="23"/>
       <c r="B36" s="8"/>
       <c r="C36" s="23"/>
@@ -15502,7 +15502,7 @@
       <c r="K36" s="98"/>
       <c r="L36" s="98"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" ht="14.4">
       <c r="A37" s="23"/>
       <c r="B37" s="8"/>
       <c r="C37" s="29"/>
@@ -15516,7 +15516,7 @@
       <c r="K37" s="98"/>
       <c r="L37" s="98"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" ht="14.4">
       <c r="A38" s="23"/>
       <c r="B38" s="8"/>
       <c r="C38" s="23"/>
@@ -15530,7 +15530,7 @@
       <c r="K38" s="98"/>
       <c r="L38" s="98"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" ht="14.4">
       <c r="A39" s="23"/>
       <c r="B39" s="8"/>
       <c r="C39" s="23"/>
@@ -15544,7 +15544,7 @@
       <c r="K39" s="98"/>
       <c r="L39" s="98"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" ht="14.4">
       <c r="A40" s="23"/>
       <c r="B40" s="8"/>
       <c r="C40" s="23"/>
@@ -15558,7 +15558,7 @@
       <c r="K40" s="98"/>
       <c r="L40" s="98"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" ht="14.4">
       <c r="A41" s="23"/>
       <c r="B41" s="8"/>
       <c r="C41" s="29"/>
@@ -15572,7 +15572,7 @@
       <c r="K41" s="98"/>
       <c r="L41" s="98"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" ht="14.4">
       <c r="A42" s="23"/>
       <c r="B42" s="8"/>
       <c r="C42" s="23"/>
@@ -15586,7 +15586,7 @@
       <c r="K42" s="98"/>
       <c r="L42" s="98"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" ht="14.4">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="D43" s="23"/>
@@ -15599,7 +15599,7 @@
       <c r="K43" s="98"/>
       <c r="L43" s="98"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" ht="14.4">
       <c r="A44" s="23"/>
       <c r="B44" s="8"/>
       <c r="C44" s="23"/>
@@ -15613,7 +15613,7 @@
       <c r="K44" s="98"/>
       <c r="L44" s="98"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" ht="14.4">
       <c r="A45" s="23"/>
       <c r="B45" s="8"/>
       <c r="C45" s="23"/>
@@ -15627,7 +15627,7 @@
       <c r="K45" s="98"/>
       <c r="L45" s="98"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" ht="14.4">
       <c r="A46" s="23"/>
       <c r="B46" s="8"/>
       <c r="C46" s="23"/>
@@ -15641,7 +15641,7 @@
       <c r="K46" s="98"/>
       <c r="L46" s="98"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" ht="14.4">
       <c r="A47" s="23"/>
       <c r="B47" s="8"/>
       <c r="C47" s="29"/>
@@ -15655,7 +15655,7 @@
       <c r="K47" s="98"/>
       <c r="L47" s="98"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" ht="14.4">
       <c r="A48" s="23"/>
       <c r="B48" s="8"/>
       <c r="C48" s="23"/>
@@ -15669,7 +15669,7 @@
       <c r="K48" s="98"/>
       <c r="L48" s="98"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" ht="14.4">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="23"/>
@@ -15683,7 +15683,7 @@
       <c r="K49" s="98"/>
       <c r="L49" s="98"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" ht="14.4">
       <c r="A50" s="23"/>
       <c r="B50" s="8"/>
       <c r="C50" s="23"/>
@@ -15697,7 +15697,7 @@
       <c r="K50" s="98"/>
       <c r="L50" s="98"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" ht="14.4">
       <c r="A51" s="23"/>
       <c r="B51" s="8"/>
       <c r="D51" s="23"/>
@@ -15710,7 +15710,7 @@
       <c r="K51" s="98"/>
       <c r="L51" s="98"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" ht="14.4">
       <c r="A52" s="23"/>
       <c r="B52" s="8"/>
       <c r="C52" s="23"/>
@@ -15724,7 +15724,7 @@
       <c r="K52" s="98"/>
       <c r="L52" s="98"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" ht="14.4">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="23"/>
@@ -15738,19 +15738,19 @@
       <c r="K53" s="98"/>
       <c r="L53" s="98"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" ht="14.4">
       <c r="K54" s="98"/>
       <c r="L54" s="98"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" ht="14.4">
       <c r="K55" s="98"/>
       <c r="L55" s="98"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" ht="14.4">
       <c r="K56" s="98"/>
       <c r="L56" s="98"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" ht="14.4">
       <c r="K57" s="99"/>
       <c r="L57" s="99"/>
     </row>
@@ -15826,30 +15826,30 @@
   </sheetPr>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="57.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="57.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="11.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.88671875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="201" customFormat="1" ht="57.75">
+    <row r="1" spans="1:13" s="201" customFormat="1" ht="57.6">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -15884,27 +15884,27 @@
         <v>10</v>
       </c>
       <c r="L1" s="108" t="s">
+        <v>421</v>
+      </c>
+      <c r="M1" s="223" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8">
+      <c r="A2" s="121" t="s">
         <v>423</v>
       </c>
-      <c r="M1" s="223" t="s">
+      <c r="B2" s="35" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="29.25">
-      <c r="A2" s="121" t="s">
+      <c r="C2" s="121" t="s">
         <v>425</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="C2" s="121" t="s">
-        <v>427</v>
       </c>
       <c r="D2" s="132" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F2" s="124" t="s">
         <v>17</v>
@@ -15922,30 +15922,30 @@
         <v>37</v>
       </c>
       <c r="K2" s="98" t="s">
+        <v>427</v>
+      </c>
+      <c r="L2" s="141" t="s">
+        <v>428</v>
+      </c>
+      <c r="M2" s="141" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="72">
+      <c r="A3" s="125" t="s">
         <v>429</v>
       </c>
-      <c r="L2" s="141" t="s">
+      <c r="B3" s="74" t="s">
         <v>430</v>
       </c>
-      <c r="M2" s="141" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="72.75">
-      <c r="A3" s="125" t="s">
+      <c r="C3" s="125" t="s">
         <v>431</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>432</v>
-      </c>
-      <c r="C3" s="125" t="s">
-        <v>433</v>
       </c>
       <c r="D3" s="126" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F3" s="127" t="s">
         <v>35</v>
@@ -15963,12 +15963,12 @@
         <v>37</v>
       </c>
       <c r="K3" s="98" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L3" s="129"/>
       <c r="M3" s="129"/>
     </row>
-    <row r="4" spans="1:13" ht="29.25">
+    <row r="4" spans="1:13" ht="28.8">
       <c r="A4" s="131" t="s">
         <v>13</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F4" s="124" t="s">
         <v>17</v>
@@ -16005,27 +16005,27 @@
       <c r="L4" s="107"/>
       <c r="M4" s="107"/>
     </row>
-    <row r="5" spans="1:13" ht="43.5">
+    <row r="5" spans="1:13" ht="43.2">
       <c r="A5" s="125" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="134" t="s">
         <v>437</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>438</v>
-      </c>
-      <c r="C5" s="134" t="s">
-        <v>439</v>
       </c>
       <c r="D5" s="126" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F5" s="127" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H5" s="127">
         <v>1</v>
@@ -16037,32 +16037,32 @@
         <v>29</v>
       </c>
       <c r="K5" s="98" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L5" s="129"/>
       <c r="M5" s="129"/>
     </row>
-    <row r="6" spans="1:13" ht="57.75">
+    <row r="6" spans="1:13" ht="57.6">
       <c r="A6" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="121" t="s">
         <v>443</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="121" t="s">
-        <v>445</v>
       </c>
       <c r="D6" s="132" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F6" s="124" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="128" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H6" s="124" t="s">
         <v>81</v>
@@ -16074,36 +16074,36 @@
         <v>29</v>
       </c>
       <c r="K6" s="98" t="s">
+        <v>446</v>
+      </c>
+      <c r="L6" s="107" t="s">
+        <v>447</v>
+      </c>
+      <c r="M6" s="107" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="43.2">
+      <c r="A7" s="125" t="s">
         <v>448</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="B7" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="M6" s="107" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="57.75">
-      <c r="A7" s="125" t="s">
+      <c r="C7" s="134" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="D7" s="185" t="s">
         <v>451</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="E7" s="126" t="s">
         <v>452</v>
-      </c>
-      <c r="D7" s="185" t="s">
-        <v>453</v>
-      </c>
-      <c r="E7" s="126" t="s">
-        <v>454</v>
       </c>
       <c r="F7" s="127" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="156" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H7" s="127" t="s">
         <v>81</v>
@@ -16115,12 +16115,12 @@
         <v>29</v>
       </c>
       <c r="K7" s="98" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L7" s="129"/>
       <c r="M7" s="129"/>
     </row>
-    <row r="8" spans="1:13" ht="57.75">
+    <row r="8" spans="1:13" ht="43.2">
       <c r="A8" s="121" t="s">
         <v>54</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F8" s="124" t="s">
         <v>17</v>
@@ -16152,12 +16152,12 @@
         <v>29</v>
       </c>
       <c r="K8" s="98" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L8" s="107"/>
       <c r="M8" s="107"/>
     </row>
-    <row r="9" spans="1:13" ht="29.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="125" t="s">
         <v>190</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="126" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F9" s="127" t="s">
         <v>17</v>
@@ -16189,26 +16189,26 @@
         <v>29</v>
       </c>
       <c r="K9" s="98" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L9" s="129"/>
       <c r="M9" s="129"/>
     </row>
-    <row r="10" spans="1:13" ht="57.75">
+    <row r="10" spans="1:13" ht="57.6">
       <c r="A10" s="121" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" s="141" t="s">
         <v>461</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="C10" s="141" t="s">
-        <v>463</v>
       </c>
       <c r="D10" s="132" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F10" s="124" t="s">
         <v>17</v>
@@ -16226,32 +16226,32 @@
         <v>37</v>
       </c>
       <c r="K10" s="98" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L10" s="107"/>
       <c r="M10" s="107"/>
     </row>
-    <row r="11" spans="1:13" ht="72.75">
+    <row r="11" spans="1:13" ht="72">
       <c r="A11" s="125" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="D11" s="154" t="s">
         <v>467</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="E11" s="126" t="s">
         <v>468</v>
-      </c>
-      <c r="D11" s="154" t="s">
-        <v>469</v>
-      </c>
-      <c r="E11" s="126" t="s">
-        <v>470</v>
       </c>
       <c r="F11" s="127" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H11" s="127">
         <v>1</v>
@@ -16263,7 +16263,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="99" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L11" s="129"/>
       <c r="M11" s="129"/>
@@ -16282,7 +16282,7 @@
         <v>85</v>
       </c>
       <c r="E12" s="138" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F12" s="124" t="s">
         <v>17</v>
@@ -16300,14 +16300,14 @@
         <v>29</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L12" s="107"/>
       <c r="M12" s="107"/>
     </row>
-    <row r="13" spans="1:13" ht="72.75">
+    <row r="13" spans="1:13" ht="72">
       <c r="A13" s="125" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B13" s="74" t="s">
         <v>90</v>
@@ -16319,13 +16319,13 @@
         <v>92</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F13" s="127" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="127" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H13" s="127">
         <v>1</v>
@@ -16337,14 +16337,14 @@
         <v>37</v>
       </c>
       <c r="K13" s="98" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L13" s="129"/>
       <c r="M13" s="129"/>
     </row>
-    <row r="14" spans="1:13" ht="72.75">
+    <row r="14" spans="1:13" ht="72">
       <c r="A14" s="121" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>177</v>
@@ -16356,7 +16356,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F14" s="124" t="s">
         <v>17</v>
@@ -16374,32 +16374,32 @@
         <v>29</v>
       </c>
       <c r="K14" s="98" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L14" s="107"/>
       <c r="M14" s="107"/>
     </row>
-    <row r="15" spans="1:13" ht="101.25">
+    <row r="15" spans="1:13" ht="100.8">
       <c r="A15" s="125" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="125" t="s">
         <v>482</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="D15" s="185" t="s">
+        <v>451</v>
+      </c>
+      <c r="E15" s="80" t="s">
         <v>483</v>
-      </c>
-      <c r="C15" s="125" t="s">
-        <v>484</v>
-      </c>
-      <c r="D15" s="185" t="s">
-        <v>453</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>485</v>
       </c>
       <c r="F15" s="127" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H15" s="127" t="s">
         <v>81</v>
@@ -16411,12 +16411,12 @@
         <v>29</v>
       </c>
       <c r="K15" s="98" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L15" s="129"/>
       <c r="M15" s="129"/>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:13">
       <c r="A16" s="121" t="s">
         <v>96</v>
       </c>
@@ -16446,32 +16446,32 @@
         <v>29</v>
       </c>
       <c r="K16" s="98" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
     </row>
-    <row r="17" spans="1:13" ht="57.75">
+    <row r="17" spans="1:13" ht="57.6">
       <c r="A17" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="C17" s="125" t="s">
         <v>488</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="D17" s="185" t="s">
+        <v>451</v>
+      </c>
+      <c r="E17" s="74" t="s">
         <v>489</v>
-      </c>
-      <c r="C17" s="125" t="s">
-        <v>490</v>
-      </c>
-      <c r="D17" s="185" t="s">
-        <v>453</v>
-      </c>
-      <c r="E17" s="74" t="s">
-        <v>491</v>
       </c>
       <c r="F17" s="127" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H17" s="127" t="s">
         <v>81</v>
@@ -16483,12 +16483,12 @@
         <v>29</v>
       </c>
       <c r="K17" s="98" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L17" s="129"/>
       <c r="M17" s="129"/>
     </row>
-    <row r="18" spans="1:13" ht="15">
+    <row r="18" spans="1:13">
       <c r="A18" s="121" t="s">
         <v>107</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="132" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F18" s="124" t="s">
         <v>17</v>
@@ -16520,12 +16520,12 @@
         <v>29</v>
       </c>
       <c r="K18" s="98" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L18" s="107"/>
       <c r="M18" s="107"/>
     </row>
-    <row r="19" spans="1:13" ht="29.25">
+    <row r="19" spans="1:13" ht="28.8">
       <c r="A19" s="125" t="s">
         <v>310</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>311</v>
       </c>
       <c r="C19" s="125" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D19" s="126"/>
       <c r="E19" s="80" t="s">
@@ -16556,13 +16556,13 @@
       </c>
       <c r="K19" s="104"/>
       <c r="L19" s="129" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M19" s="129" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="144.75">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="129.6">
       <c r="A20" s="121" t="s">
         <v>111</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="79" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F20" s="190" t="s">
         <v>35</v>
@@ -16594,12 +16594,12 @@
         <v>29</v>
       </c>
       <c r="K20" s="99" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L20" s="107"/>
       <c r="M20" s="107"/>
     </row>
-    <row r="21" spans="1:13" ht="43.5">
+    <row r="21" spans="1:13" ht="43.2">
       <c r="A21" s="125" t="s">
         <v>325</v>
       </c>
@@ -16610,10 +16610,10 @@
         <v>327</v>
       </c>
       <c r="D21" s="154" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E21" s="81" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F21" s="127" t="s">
         <v>17</v>
@@ -16631,12 +16631,12 @@
         <v>29</v>
       </c>
       <c r="K21" s="98" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L21" s="129"/>
       <c r="M21" s="129"/>
     </row>
-    <row r="22" spans="1:13" ht="57.75">
+    <row r="22" spans="1:13" ht="57.6">
       <c r="A22" s="121" t="s">
         <v>331</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="132" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F22" s="124" t="s">
         <v>17</v>
@@ -16671,7 +16671,7 @@
       <c r="L22" s="107"/>
       <c r="M22" s="107"/>
     </row>
-    <row r="23" spans="1:13" ht="29.25">
+    <row r="23" spans="1:13" ht="28.8">
       <c r="A23" s="125" t="s">
         <v>132</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="126" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F23" s="127" t="s">
         <v>17</v>
@@ -16703,12 +16703,12 @@
         <v>29</v>
       </c>
       <c r="K23" s="98" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L23" s="129"/>
       <c r="M23" s="129"/>
     </row>
-    <row r="24" spans="1:13" ht="15">
+    <row r="24" spans="1:13">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="23"/>
@@ -16721,7 +16721,7 @@
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="1:13" ht="15">
+    <row r="25" spans="1:13">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="29"/>
@@ -17139,24 +17139,24 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="41" customWidth="1"/>
     <col min="4" max="4" width="24" style="34" customWidth="1"/>
-    <col min="5" max="5" width="76.5703125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="32" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="32" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="32"/>
+    <col min="5" max="5" width="76.5546875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="32" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" style="32" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="32" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="199" customFormat="1" ht="43.5">
+    <row r="1" spans="1:12" s="199" customFormat="1" ht="43.2">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="108" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -17208,7 +17208,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="74" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F2" s="124" t="s">
         <v>17</v>
@@ -17226,11 +17226,11 @@
         <v>29</v>
       </c>
       <c r="K2" s="98" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L2" s="129"/>
     </row>
-    <row r="3" spans="1:12" ht="57.75">
+    <row r="3" spans="1:12" ht="57.6">
       <c r="A3" s="121" t="s">
         <v>31</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="98" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L3" s="107" t="s">
         <v>39</v>
@@ -17282,7 +17282,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="126" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F4" s="127" t="s">
         <v>35</v>
@@ -17300,11 +17300,11 @@
         <v>29</v>
       </c>
       <c r="K4" s="99" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L4" s="129"/>
     </row>
-    <row r="5" spans="1:12" ht="43.5">
+    <row r="5" spans="1:12" ht="43.2">
       <c r="A5" s="121" t="s">
         <v>195</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>198</v>
       </c>
       <c r="E5" s="135" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F5" s="124" t="s">
         <v>17</v>
@@ -17338,107 +17338,107 @@
       <c r="K5" s="105"/>
       <c r="L5" s="107"/>
     </row>
-    <row r="6" spans="1:12" ht="29.1">
-      <c r="A6" s="241" t="s">
+    <row r="6" spans="1:12" ht="28.8">
+      <c r="A6" s="245" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="246" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="241" t="s">
+      <c r="C6" s="245" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="247" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="240" t="s">
+      <c r="F6" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="240" t="s">
+      <c r="G6" s="244" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="240" t="s">
+      <c r="H6" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="244" t="s">
+      <c r="I6" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="237" t="s">
+      <c r="J6" s="235" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="245" t="s">
-        <v>512</v>
-      </c>
-      <c r="L6" s="244"/>
-    </row>
-    <row r="7" spans="1:12" ht="29.1">
-      <c r="A7" s="241"/>
-      <c r="B7" s="242"/>
-      <c r="C7" s="241"/>
+      <c r="K6" s="243" t="s">
+        <v>510</v>
+      </c>
+      <c r="L6" s="242"/>
+    </row>
+    <row r="7" spans="1:12" ht="28.8">
+      <c r="A7" s="245"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="245"/>
       <c r="D7" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="243"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="237"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="244"/>
-    </row>
-    <row r="8" spans="1:12" ht="29.1">
-      <c r="A8" s="241"/>
-      <c r="B8" s="242"/>
-      <c r="C8" s="241"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="242"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.8">
+      <c r="A8" s="245"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="245"/>
       <c r="D8" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="243"/>
-      <c r="F8" s="240"/>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="245"/>
-      <c r="L8" s="244"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="242"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="241"/>
-      <c r="B9" s="242"/>
-      <c r="C9" s="241"/>
+      <c r="A9" s="245"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="245"/>
       <c r="D9" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="245"/>
-      <c r="L9" s="244"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="242"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="241"/>
-      <c r="B10" s="242"/>
-      <c r="C10" s="241"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="246"/>
+      <c r="C10" s="245"/>
       <c r="D10" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="243"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="240"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="245"/>
-      <c r="L10" s="244"/>
-    </row>
-    <row r="11" spans="1:12" ht="29.1">
+      <c r="E10" s="247"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="242"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="121" t="s">
         <v>96</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="132" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F11" s="124" t="s">
         <v>17</v>
@@ -17470,11 +17470,11 @@
         <v>29</v>
       </c>
       <c r="K11" s="99" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L11" s="107"/>
     </row>
-    <row r="12" spans="1:12" ht="29.1">
+    <row r="12" spans="1:12" ht="28.8">
       <c r="A12" s="125" t="s">
         <v>101</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F12" s="124" t="s">
         <v>17</v>
@@ -17506,13 +17506,13 @@
         <v>29</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L12" s="129" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="29.1">
+    <row r="13" spans="1:12" ht="28.8">
       <c r="A13" s="121" t="s">
         <v>107</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="132" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F13" s="127" t="s">
         <v>17</v>
@@ -17544,11 +17544,11 @@
         <v>29</v>
       </c>
       <c r="K13" s="98" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L13" s="107"/>
     </row>
-    <row r="14" spans="1:12" ht="48.95" customHeight="1">
+    <row r="14" spans="1:12" ht="48.9" customHeight="1">
       <c r="A14" s="125" t="s">
         <v>122</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="126" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F14" s="124" t="s">
         <v>17</v>
@@ -17580,7 +17580,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="98" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L14" s="129" t="s">
         <v>314</v>
@@ -17600,7 +17600,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F15" s="127" t="s">
         <v>35</v>
@@ -17745,17 +17745,17 @@
   </sheetData>
   <autoFilter ref="A1:L15" xr:uid="{FBE7E653-2382-46E4-9C76-9C694EDC9195}"/>
   <mergeCells count="11">
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="J6:J10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="F6:F10"/>
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6 F11:F15">
     <cfRule type="cellIs" dxfId="127" priority="7" operator="equal">
@@ -17854,23 +17854,23 @@
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="112" customWidth="1"/>
-    <col min="5" max="5" width="67.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="112" customWidth="1"/>
+    <col min="5" max="5" width="67.5546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="33.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="202" customFormat="1" ht="43.5">
+    <row r="1" spans="1:12" s="202" customFormat="1" ht="43.2">
       <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
@@ -17905,10 +17905,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="108" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="87.6">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="92.4">
       <c r="A2" s="131" t="s">
         <v>150</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>153</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F2" s="124" t="s">
         <v>35</v>
@@ -17940,11 +17940,11 @@
         <v>37</v>
       </c>
       <c r="K2" s="107" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L2" s="186"/>
     </row>
-    <row r="3" spans="1:12" ht="29.1">
+    <row r="3" spans="1:12" ht="28.8">
       <c r="A3" s="125" t="s">
         <v>13</v>
       </c>
@@ -17978,7 +17978,7 @@
     </row>
     <row r="4" spans="1:12" ht="92.25" customHeight="1">
       <c r="A4" s="121" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>177</v>
@@ -17990,7 +17990,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="194" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F4" s="124" t="s">
         <v>17</v>
@@ -18010,7 +18010,7 @@
       <c r="K4" s="107"/>
       <c r="L4" s="107"/>
     </row>
-    <row r="5" spans="1:12" ht="72.75">
+    <row r="5" spans="1:12" ht="57.6">
       <c r="A5" s="191" t="s">
         <v>31</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="174">
+    <row r="6" spans="1:12" ht="158.4">
       <c r="A6" s="121" t="s">
         <v>40</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="29.1">
+    <row r="7" spans="1:12" ht="28.8">
       <c r="A7" s="125" t="s">
         <v>111</v>
       </c>
@@ -18114,7 +18114,7 @@
       <c r="K7" s="107"/>
       <c r="L7" s="129"/>
     </row>
-    <row r="8" spans="1:12" ht="50.1">
+    <row r="8" spans="1:12" ht="39.6">
       <c r="A8" s="131" t="s">
         <v>54</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F8" s="124" t="s">
         <v>35</v>
@@ -18146,31 +18146,31 @@
         <v>37</v>
       </c>
       <c r="K8" s="107" t="s">
+        <v>525</v>
+      </c>
+      <c r="L8" s="107"/>
+    </row>
+    <row r="9" spans="1:12" ht="43.2">
+      <c r="A9" s="125" t="s">
+        <v>526</v>
+      </c>
+      <c r="B9" s="74" t="s">
         <v>527</v>
       </c>
-      <c r="L8" s="107"/>
-    </row>
-    <row r="9" spans="1:12" ht="43.5">
-      <c r="A9" s="125" t="s">
+      <c r="C9" s="125" t="s">
         <v>528</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>529</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>530</v>
       </c>
       <c r="D9" s="126" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="212" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F9" s="127" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H9" s="127">
         <v>1</v>
@@ -18182,31 +18182,31 @@
         <v>37</v>
       </c>
       <c r="K9" s="106" t="s">
+        <v>530</v>
+      </c>
+      <c r="L9" s="129"/>
+    </row>
+    <row r="10" spans="1:12" ht="43.2">
+      <c r="A10" s="121" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="L9" s="129"/>
-    </row>
-    <row r="10" spans="1:12" ht="43.5">
-      <c r="A10" s="121" t="s">
+      <c r="C10" s="121" t="s">
         <v>533</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>535</v>
       </c>
       <c r="D10" s="132" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F10" s="124" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H10" s="133">
         <v>1</v>
@@ -18218,29 +18218,29 @@
         <v>37</v>
       </c>
       <c r="K10" s="106" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L10" s="107"/>
     </row>
-    <row r="11" spans="1:12" ht="43.5">
+    <row r="11" spans="1:12" ht="43.2">
       <c r="A11" s="125" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="134" t="s">
         <v>466</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="D11" s="154" t="s">
         <v>467</v>
-      </c>
-      <c r="C11" s="134" t="s">
-        <v>468</v>
-      </c>
-      <c r="D11" s="154" t="s">
-        <v>469</v>
       </c>
       <c r="E11" s="126"/>
       <c r="F11" s="127" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H11" s="127" t="s">
         <v>19</v>
@@ -18254,15 +18254,15 @@
       <c r="K11" s="107"/>
       <c r="L11" s="129"/>
     </row>
-    <row r="12" spans="1:12" ht="43.5">
+    <row r="12" spans="1:12" ht="28.8">
       <c r="A12" s="121" t="s">
+        <v>536</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="121" t="s">
         <v>538</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>540</v>
       </c>
       <c r="D12" s="132" t="s">
         <v>16</v>
@@ -18286,7 +18286,7 @@
       <c r="K12" s="106"/>
       <c r="L12" s="107"/>
     </row>
-    <row r="13" spans="1:12" ht="57.95">
+    <row r="13" spans="1:12" ht="57.6">
       <c r="A13" s="191" t="s">
         <v>213</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F13" s="127" t="s">
         <v>35</v>
@@ -18320,7 +18320,7 @@
       <c r="K13" s="106"/>
       <c r="L13" s="129"/>
     </row>
-    <row r="14" spans="1:12" ht="29.1">
+    <row r="14" spans="1:12" ht="28.8">
       <c r="A14" s="121" t="s">
         <v>230</v>
       </c>
@@ -18352,21 +18352,21 @@
       <c r="K14" s="106"/>
       <c r="L14" s="107"/>
     </row>
-    <row r="15" spans="1:12" ht="72.599999999999994">
+    <row r="15" spans="1:12" ht="57.6">
       <c r="A15" s="125" t="s">
+        <v>540</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>541</v>
+      </c>
+      <c r="C15" s="125" t="s">
         <v>542</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>543</v>
-      </c>
-      <c r="C15" s="125" t="s">
-        <v>544</v>
       </c>
       <c r="D15" s="126" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="126" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F15" s="127" t="s">
         <v>17</v>
@@ -18386,7 +18386,7 @@
       <c r="K15" s="106"/>
       <c r="L15" s="129"/>
     </row>
-    <row r="16" spans="1:12" ht="43.5">
+    <row r="16" spans="1:12" ht="43.2">
       <c r="A16" s="121" t="s">
         <v>82</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>85</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F16" s="124" t="s">
         <v>17</v>
@@ -18420,7 +18420,7 @@
       <c r="K16" s="106"/>
       <c r="L16" s="107"/>
     </row>
-    <row r="17" spans="1:12" ht="72.599999999999994">
+    <row r="17" spans="1:12" ht="57.6">
       <c r="A17" s="125" t="s">
         <v>89</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F17" s="127" t="s">
         <v>35</v>
@@ -18452,11 +18452,11 @@
         <v>37</v>
       </c>
       <c r="K17" s="107" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L17" s="129"/>
     </row>
-    <row r="18" spans="1:12" ht="57.95">
+    <row r="18" spans="1:12" ht="57.6">
       <c r="A18" s="121" t="s">
         <v>96</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F18" s="124" t="s">
         <v>17</v>
@@ -18490,7 +18490,7 @@
       <c r="K18" s="106"/>
       <c r="L18" s="107"/>
     </row>
-    <row r="19" spans="1:12" ht="29.1">
+    <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="125" t="s">
         <v>266</v>
       </c>
@@ -18521,10 +18521,10 @@
       </c>
       <c r="K19" s="106"/>
       <c r="L19" s="129" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="57.95">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="43.2">
       <c r="A20" s="121" t="s">
         <v>101</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F20" s="124" t="s">
         <v>35</v>
@@ -18560,21 +18560,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="57.95">
+    <row r="21" spans="1:12" ht="57.6">
       <c r="A21" s="125" t="s">
+        <v>550</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>551</v>
+      </c>
+      <c r="C21" s="125" t="s">
         <v>552</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>553</v>
-      </c>
-      <c r="C21" s="125" t="s">
-        <v>554</v>
       </c>
       <c r="D21" s="126" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="126" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F21" s="127" t="s">
         <v>17</v>
@@ -18592,13 +18592,13 @@
         <v>29</v>
       </c>
       <c r="K21" s="107" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L21" s="192" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="43.5">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="43.2">
       <c r="A22" s="121" t="s">
         <v>336</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>338</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F22" s="124" t="s">
         <v>35</v>
@@ -18632,7 +18632,7 @@
       <c r="K22" s="106"/>
       <c r="L22" s="107"/>
     </row>
-    <row r="23" spans="1:12" ht="29.1">
+    <row r="23" spans="1:12" ht="28.8">
       <c r="A23" s="125" t="s">
         <v>132</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="126" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F23" s="127" t="s">
         <v>35</v>
@@ -18664,7 +18664,7 @@
         <v>29</v>
       </c>
       <c r="K23" s="106" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L23" s="195"/>
     </row>
@@ -19147,6 +19147,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B1A1CF98C819F4881BB4349588D0C85" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff8ef391852eaca4511043a54bffd4a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfc87205-1831-4b6c-a7b4-76d40079a43e" xmlns:ns3="221af607-abea-4d5e-830c-567dcc03c0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="201dd8b781da46d5daa37e3355db44fe" ns2:_="" ns3:_="">
     <xsd:import namespace="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
@@ -19389,15 +19398,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -19411,13 +19411,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A23828-4FF7-4569-837D-B1B2C775409F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A00443-9B7C-473F-A198-CBEB23A0BCC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A23828-4FF7-4569-837D-B1B2C775409F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D2CAB5-B21B-4A93-9D82-49FE3E36CF14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>